--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.98205962475413</v>
+        <v>19.95342597174051</v>
       </c>
       <c r="C2">
-        <v>14.48823621673232</v>
+        <v>13.45313084640486</v>
       </c>
       <c r="D2">
-        <v>5.016346703203856</v>
+        <v>3.396603964360912</v>
       </c>
       <c r="E2">
-        <v>7.224488691154531</v>
+        <v>11.59389830881487</v>
       </c>
       <c r="F2">
-        <v>39.52820564644764</v>
+        <v>29.11091191037211</v>
       </c>
       <c r="I2">
-        <v>26.77410694162801</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.60832070018109</v>
+        <v>17.46828725797027</v>
       </c>
       <c r="L2">
-        <v>9.716267938607196</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.10856636630781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.65979904722521</v>
+      </c>
+      <c r="N2">
+        <v>12.1072317646326</v>
+      </c>
+      <c r="O2">
+        <v>22.43495070646293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70474226509879</v>
+        <v>18.54772361936016</v>
       </c>
       <c r="C3">
-        <v>13.45010759381725</v>
+        <v>12.54589041533112</v>
       </c>
       <c r="D3">
-        <v>5.028374031494968</v>
+        <v>3.478794815888894</v>
       </c>
       <c r="E3">
-        <v>7.035515444179126</v>
+        <v>10.9187035342748</v>
       </c>
       <c r="F3">
-        <v>37.57217347048709</v>
+        <v>27.75314827856707</v>
       </c>
       <c r="I3">
-        <v>25.81647911010365</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.45762711644686</v>
+        <v>16.27691877605422</v>
       </c>
       <c r="L3">
-        <v>9.241149888528017</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.14226051742997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.44063982383449</v>
+      </c>
+      <c r="N3">
+        <v>12.3447480961323</v>
+      </c>
+      <c r="O3">
+        <v>21.571494825576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.88040663868601</v>
+        <v>17.63876517261332</v>
       </c>
       <c r="C4">
-        <v>12.78142226829321</v>
+        <v>11.96024437741401</v>
       </c>
       <c r="D4">
-        <v>5.037440061240038</v>
+        <v>3.529298004734951</v>
       </c>
       <c r="E4">
-        <v>6.922475192577113</v>
+        <v>10.49623454531824</v>
       </c>
       <c r="F4">
-        <v>36.35748127380843</v>
+        <v>26.91928809601417</v>
       </c>
       <c r="I4">
-        <v>25.23360012860789</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.71575333829289</v>
+        <v>15.50714665896513</v>
       </c>
       <c r="L4">
-        <v>8.946363146586787</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.51985509777642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.65442963674879</v>
+      </c>
+      <c r="N4">
+        <v>12.49419152918947</v>
+      </c>
+      <c r="O4">
+        <v>21.05007553403365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53424304726034</v>
+        <v>17.25668078399238</v>
       </c>
       <c r="C5">
-        <v>12.50091166204588</v>
+        <v>11.71431891266723</v>
       </c>
       <c r="D5">
-        <v>5.041526905324606</v>
+        <v>3.549916320683782</v>
       </c>
       <c r="E5">
-        <v>6.877171163557999</v>
+        <v>10.32221992612389</v>
       </c>
       <c r="F5">
-        <v>35.85945096191981</v>
+        <v>26.57979500467196</v>
       </c>
       <c r="I5">
-        <v>24.9974795546825</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.40440106072177</v>
+        <v>15.18372493247796</v>
       </c>
       <c r="L5">
-        <v>8.825580327834871</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.25879189551427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.32444588943067</v>
+      </c>
+      <c r="N5">
+        <v>12.55600483191049</v>
+      </c>
+      <c r="O5">
+        <v>20.83996323688936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47613966216961</v>
+        <v>17.19252657889562</v>
       </c>
       <c r="C6">
-        <v>12.45384466569002</v>
+        <v>11.67304197830362</v>
       </c>
       <c r="D6">
-        <v>5.042228383606846</v>
+        <v>3.553343049004921</v>
       </c>
       <c r="E6">
-        <v>6.869694706987814</v>
+        <v>10.29321756601358</v>
       </c>
       <c r="F6">
-        <v>35.7765841329654</v>
+        <v>26.52345296189626</v>
       </c>
       <c r="I6">
-        <v>24.95836098124053</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.35215167893474</v>
+        <v>15.12943008344598</v>
       </c>
       <c r="L6">
-        <v>8.805488769717931</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.21499085002911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.26906910244069</v>
+      </c>
+      <c r="N6">
+        <v>12.56632431863413</v>
+      </c>
+      <c r="O6">
+        <v>20.80522278186879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87577983171389</v>
+        <v>17.63365971559035</v>
       </c>
       <c r="C7">
-        <v>12.77767185542469</v>
+        <v>11.95695727355954</v>
       </c>
       <c r="D7">
-        <v>5.037493627355639</v>
+        <v>3.529575881427325</v>
       </c>
       <c r="E7">
-        <v>6.921861113082469</v>
+        <v>10.49389502958704</v>
       </c>
       <c r="F7">
-        <v>36.35077633011876</v>
+        <v>26.91470779104516</v>
       </c>
       <c r="I7">
-        <v>25.23040984493995</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.71159108934765</v>
+        <v>15.50282442993409</v>
       </c>
       <c r="L7">
-        <v>8.944736706739562</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.51636452438189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.65001838286692</v>
+      </c>
+      <c r="N7">
+        <v>12.49502145415115</v>
+      </c>
+      <c r="O7">
+        <v>21.04723204830115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.54985052263824</v>
+        <v>19.47816557215952</v>
       </c>
       <c r="C8">
-        <v>14.13668437142382</v>
+        <v>13.14619872629115</v>
       </c>
       <c r="D8">
-        <v>5.020125620330617</v>
+        <v>3.424953395074953</v>
       </c>
       <c r="E8">
-        <v>7.158714696413967</v>
+        <v>11.36279481279928</v>
       </c>
       <c r="F8">
-        <v>38.85681559399977</v>
+        <v>28.64298898399155</v>
       </c>
       <c r="I8">
-        <v>26.44292151160979</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.21880565150919</v>
+        <v>17.0653758550097</v>
       </c>
       <c r="L8">
-        <v>9.553143453998914</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.78134965427977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.24716254538133</v>
+      </c>
+      <c r="N8">
+        <v>12.1883820494293</v>
+      </c>
+      <c r="O8">
+        <v>22.13551135389011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.52300329081443</v>
+        <v>22.73846563098157</v>
       </c>
       <c r="C9">
-        <v>16.56106929772183</v>
+        <v>15.25551993403977</v>
       </c>
       <c r="D9">
-        <v>5.000934602286562</v>
+        <v>3.218669210932434</v>
       </c>
       <c r="E9">
-        <v>7.646713223188245</v>
+        <v>13.03994325460548</v>
       </c>
       <c r="F9">
-        <v>43.65059844566762</v>
+        <v>32.01853091795821</v>
       </c>
       <c r="I9">
-        <v>28.85755048094787</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.9012627660049</v>
+        <v>19.83144689047355</v>
       </c>
       <c r="L9">
-        <v>10.7183456386203</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.03695771909874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.08706905382656</v>
+      </c>
+      <c r="N9">
+        <v>11.61551844857424</v>
+      </c>
+      <c r="O9">
+        <v>24.33297066373463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.53097957090965</v>
+        <v>24.92683185784623</v>
       </c>
       <c r="C10">
-        <v>18.20703339516226</v>
+        <v>16.67598128222843</v>
       </c>
       <c r="D10">
-        <v>4.998304440523707</v>
+        <v>3.064213696251318</v>
       </c>
       <c r="E10">
-        <v>8.019782910604073</v>
+        <v>14.38518758074969</v>
       </c>
       <c r="F10">
-        <v>47.09180037737256</v>
+        <v>34.47970918831889</v>
       </c>
       <c r="I10">
-        <v>30.65245993964417</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.71676137509651</v>
+        <v>21.69050409897573</v>
       </c>
       <c r="L10">
-        <v>11.61747358649615</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.56611958444912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.00565294542178</v>
+      </c>
+      <c r="N10">
+        <v>11.21205286407537</v>
+      </c>
+      <c r="O10">
+        <v>25.98076305366456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40925769085021</v>
+        <v>25.87998804035851</v>
       </c>
       <c r="C11">
-        <v>18.92935577973871</v>
+        <v>17.29580215249377</v>
       </c>
       <c r="D11">
-        <v>5.000227547783184</v>
+        <v>2.992748351640393</v>
       </c>
       <c r="E11">
-        <v>8.192867614203674</v>
+        <v>14.977700141478</v>
       </c>
       <c r="F11">
-        <v>48.64075425723476</v>
+        <v>35.59473038236093</v>
       </c>
       <c r="I11">
-        <v>31.47428572093061</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.51181578528672</v>
+        <v>22.50076856743254</v>
       </c>
       <c r="L11">
-        <v>12.08300438574575</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.2363365546977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.84456441086423</v>
+      </c>
+      <c r="N11">
+        <v>11.03243311442455</v>
+      </c>
+      <c r="O11">
+        <v>26.73743495944327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.73707461191753</v>
+        <v>26.23506795643522</v>
       </c>
       <c r="C12">
-        <v>19.19935398285046</v>
+        <v>17.52688104664348</v>
       </c>
       <c r="D12">
-        <v>5.001465950814264</v>
+        <v>2.96545858361367</v>
       </c>
       <c r="E12">
-        <v>8.258926633402544</v>
+        <v>15.19948420205844</v>
       </c>
       <c r="F12">
-        <v>49.22518734349064</v>
+        <v>36.01636766412115</v>
       </c>
       <c r="I12">
-        <v>31.78639677245568</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.80872133764397</v>
+        <v>22.80269767349892</v>
       </c>
       <c r="L12">
-        <v>12.25701744505775</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.48670290098809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.15760757976381</v>
+      </c>
+      <c r="N12">
+        <v>10.965004796599</v>
+      </c>
+      <c r="O12">
+        <v>27.02503918492528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.66668045981234</v>
+        <v>26.15885185889983</v>
       </c>
       <c r="C13">
-        <v>19.1413573156757</v>
+        <v>17.47727300557631</v>
       </c>
       <c r="D13">
-        <v>5.001175474431683</v>
+        <v>2.971346980909225</v>
       </c>
       <c r="E13">
-        <v>8.244676077505126</v>
+        <v>15.1518305076148</v>
       </c>
       <c r="F13">
-        <v>49.09940820124316</v>
+        <v>35.92558513784814</v>
       </c>
       <c r="I13">
-        <v>31.71913487771622</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.74495797809471</v>
+        <v>22.73788646659855</v>
       </c>
       <c r="L13">
-        <v>12.21963883470996</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.43293071926771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.09039022112385</v>
+      </c>
+      <c r="N13">
+        <v>10.979499908589</v>
+      </c>
+      <c r="O13">
+        <v>26.96304947065665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.43632116675318</v>
+        <v>25.90931672115123</v>
       </c>
       <c r="C14">
-        <v>18.95163775197553</v>
+        <v>17.31488502029972</v>
       </c>
       <c r="D14">
-        <v>5.000318823675745</v>
+        <v>2.990508100709738</v>
       </c>
       <c r="E14">
-        <v>8.198291772682538</v>
+        <v>14.99599701743944</v>
       </c>
       <c r="F14">
-        <v>48.68887654648152</v>
+        <v>35.62943002609064</v>
       </c>
       <c r="I14">
-        <v>31.49994411619156</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.53632418242051</v>
+        <v>22.52570548106729</v>
       </c>
       <c r="L14">
-        <v>12.09736507227398</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.25700170888373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.87041010048537</v>
+      </c>
+      <c r="N14">
+        <v>11.02687373140134</v>
+      </c>
+      <c r="O14">
+        <v>26.76107440241827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.2946076707487</v>
+        <v>25.75571333227177</v>
       </c>
       <c r="C15">
-        <v>18.83497803897952</v>
+        <v>17.21494940168224</v>
       </c>
       <c r="D15">
-        <v>4.999862514347735</v>
+        <v>3.002213489071646</v>
       </c>
       <c r="E15">
-        <v>8.169948329856787</v>
+        <v>14.90021417567397</v>
       </c>
       <c r="F15">
-        <v>48.43714735277688</v>
+        <v>35.44795208631426</v>
       </c>
       <c r="I15">
-        <v>31.36580649788218</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.40799619314543</v>
+        <v>22.39510644119197</v>
       </c>
       <c r="L15">
-        <v>12.02217813020298</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.14880051170194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.7350698136981</v>
+      </c>
+      <c r="N15">
+        <v>11.05596936188637</v>
+      </c>
+      <c r="O15">
+        <v>26.63750058765992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.47289836013399</v>
+        <v>24.86370790601773</v>
       </c>
       <c r="C16">
-        <v>18.15931844549222</v>
+        <v>16.63495713002049</v>
       </c>
       <c r="D16">
-        <v>4.99824660529555</v>
+        <v>3.068855427361801</v>
       </c>
       <c r="E16">
-        <v>8.008541606041817</v>
+        <v>14.34609143426707</v>
       </c>
       <c r="F16">
-        <v>46.99025912477018</v>
+        <v>34.40675098102404</v>
       </c>
       <c r="I16">
-        <v>30.59886887821167</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.66420459372738</v>
+        <v>21.63685461208546</v>
       </c>
       <c r="L16">
-        <v>11.58672235076009</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.52182650733504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.95016620928183</v>
+      </c>
+      <c r="N16">
+        <v>11.22387226861163</v>
+      </c>
+      <c r="O16">
+        <v>25.93145824600786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.95999529994674</v>
+        <v>24.30580273824987</v>
       </c>
       <c r="C17">
-        <v>17.73823541708402</v>
+        <v>16.27250600691335</v>
       </c>
       <c r="D17">
-        <v>4.998095484673178</v>
+        <v>3.109393469890818</v>
       </c>
       <c r="E17">
-        <v>7.910405432091901</v>
+        <v>14.00131487689822</v>
       </c>
       <c r="F17">
-        <v>46.09855434548755</v>
+        <v>33.76685021167318</v>
       </c>
       <c r="I17">
-        <v>30.12981498235033</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.20019805386322</v>
+        <v>21.16274909298363</v>
       </c>
       <c r="L17">
-        <v>11.31534982213045</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.13084094066881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.46013950673906</v>
+      </c>
+      <c r="N17">
+        <v>11.32789401230631</v>
+      </c>
+      <c r="O17">
+        <v>25.50015549332235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.66165844896858</v>
+        <v>23.98091001512313</v>
       </c>
       <c r="C18">
-        <v>17.49353329987806</v>
+        <v>16.06154277427353</v>
       </c>
       <c r="D18">
-        <v>4.998298039639396</v>
+        <v>3.132600316719975</v>
       </c>
       <c r="E18">
-        <v>7.854275063915965</v>
+        <v>13.80116420795476</v>
       </c>
       <c r="F18">
-        <v>45.58409649682714</v>
+        <v>33.39835584256969</v>
       </c>
       <c r="I18">
-        <v>29.86051512302093</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.93039446273432</v>
+        <v>20.88670851223275</v>
       </c>
       <c r="L18">
-        <v>11.18837745752549</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.90355005908846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.17508634310531</v>
+      </c>
+      <c r="N18">
+        <v>11.38809122302425</v>
+      </c>
+      <c r="O18">
+        <v>25.2527416953216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.56006680344231</v>
+        <v>23.87021321707749</v>
       </c>
       <c r="C19">
-        <v>17.41024317357234</v>
+        <v>15.98968197139951</v>
       </c>
       <c r="D19">
-        <v>4.998414599202342</v>
+        <v>3.140440485231726</v>
       </c>
       <c r="E19">
-        <v>7.835323664696925</v>
+        <v>13.73307393220141</v>
       </c>
       <c r="F19">
-        <v>45.40963451739248</v>
+        <v>33.27351392327601</v>
       </c>
       <c r="I19">
-        <v>29.76941546571064</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.83853457328294</v>
+        <v>20.79266536698392</v>
       </c>
       <c r="L19">
-        <v>11.14596932921541</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.82617364646505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.07801542199444</v>
+      </c>
+      <c r="N19">
+        <v>11.40853532660177</v>
+      </c>
+      <c r="O19">
+        <v>25.16908444329816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01493722357746</v>
+        <v>24.3656051349217</v>
       </c>
       <c r="C20">
-        <v>17.78331795612191</v>
+        <v>16.31134627835512</v>
       </c>
       <c r="D20">
-        <v>4.998081193096742</v>
+        <v>3.105089837525443</v>
       </c>
       <c r="E20">
-        <v>7.920819419127358</v>
+        <v>14.03820638101317</v>
       </c>
       <c r="F20">
-        <v>46.19363928199274</v>
+        <v>33.83501415505841</v>
       </c>
       <c r="I20">
-        <v>30.17969533102736</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.24989264199047</v>
+        <v>21.21356355910964</v>
       </c>
       <c r="L20">
-        <v>11.34440324598493</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.17270954224759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.51263354064033</v>
+      </c>
+      <c r="N20">
+        <v>11.31678262023186</v>
+      </c>
+      <c r="O20">
+        <v>25.54599991027518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.50411020400157</v>
+        <v>25.9827683296831</v>
       </c>
       <c r="C21">
-        <v>19.00745643991896</v>
+        <v>17.36267959412594</v>
       </c>
       <c r="D21">
-        <v>5.000556062930043</v>
+        <v>2.984886656274912</v>
       </c>
       <c r="E21">
-        <v>8.211901663171243</v>
+        <v>15.0418375203792</v>
       </c>
       <c r="F21">
-        <v>48.80951458935122</v>
+        <v>35.71643322491416</v>
       </c>
       <c r="I21">
-        <v>31.56429975786002</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.59771569322921</v>
+        <v>22.58815952351108</v>
       </c>
       <c r="L21">
-        <v>12.13334009953732</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.30876749501951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.93514736592241</v>
+      </c>
+      <c r="N21">
+        <v>11.01294261383677</v>
+      </c>
+      <c r="O21">
+        <v>26.82036965967105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.44974009111141</v>
+        <v>27.00564688843518</v>
       </c>
       <c r="C22">
-        <v>19.7870810528249</v>
+        <v>18.02869220488851</v>
       </c>
       <c r="D22">
-        <v>5.005182321356752</v>
+        <v>2.904970845787515</v>
       </c>
       <c r="E22">
-        <v>8.405170498263633</v>
+        <v>15.68280297927617</v>
       </c>
       <c r="F22">
-        <v>50.50698644958863</v>
+        <v>36.94266311035138</v>
       </c>
       <c r="I22">
-        <v>32.47460439764128</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.45447390215427</v>
+        <v>23.45807974250434</v>
       </c>
       <c r="L22">
-        <v>12.63579869355135</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.03137862744187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.83795853519126</v>
+      </c>
+      <c r="N22">
+        <v>10.81782506128273</v>
+      </c>
+      <c r="O22">
+        <v>27.65954288274056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.9474630919288</v>
+        <v>26.46274936794018</v>
       </c>
       <c r="C23">
-        <v>19.37274997709801</v>
+        <v>17.67510241340528</v>
       </c>
       <c r="D23">
-        <v>5.002415196074587</v>
+        <v>2.947767418976448</v>
       </c>
       <c r="E23">
-        <v>8.301728298202477</v>
+        <v>15.34200083320782</v>
       </c>
       <c r="F23">
-        <v>49.60200791905214</v>
+        <v>36.28846692081522</v>
       </c>
       <c r="I23">
-        <v>31.98819910167621</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.99931510464415</v>
+        <v>22.99632097123074</v>
       </c>
       <c r="L23">
-        <v>12.368769977553</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.64744372245597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>23.3584863300028</v>
+      </c>
+      <c r="N23">
+        <v>10.92163436123219</v>
+      </c>
+      <c r="O23">
+        <v>27.21105122162189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99010878470373</v>
+        <v>24.33858140106616</v>
       </c>
       <c r="C24">
-        <v>17.76294430813292</v>
+        <v>16.29379465566369</v>
       </c>
       <c r="D24">
-        <v>4.998086757339829</v>
+        <v>3.107035814107374</v>
       </c>
       <c r="E24">
-        <v>7.916110356198883</v>
+        <v>14.02153377150156</v>
       </c>
       <c r="F24">
-        <v>46.15065702081449</v>
+        <v>33.80419913010036</v>
       </c>
       <c r="I24">
-        <v>30.15714329659119</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.22743520757683</v>
+        <v>21.19060116478671</v>
       </c>
       <c r="L24">
-        <v>11.33127343639057</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.15378857600984</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.48891137841121</v>
+      </c>
+      <c r="N24">
+        <v>11.3218048560453</v>
+      </c>
+      <c r="O24">
+        <v>25.52527194579682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.75063057790514</v>
+        <v>21.89362388200425</v>
       </c>
       <c r="C25">
-        <v>15.92985484460183</v>
+        <v>14.70811220088602</v>
       </c>
       <c r="D25">
-        <v>5.004304201257868</v>
+        <v>3.27480816733881</v>
       </c>
       <c r="E25">
-        <v>7.512182420023877</v>
+        <v>12.56491585134706</v>
       </c>
       <c r="F25">
-        <v>42.36786045408523</v>
+        <v>31.10819902868608</v>
       </c>
       <c r="I25">
-        <v>28.20071944545146</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.20374460008028</v>
+        <v>19.11423079452952</v>
       </c>
       <c r="L25">
-        <v>10.40649338080758</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.44996684330687</v>
+        <v>19.34908019804839</v>
+      </c>
+      <c r="N25">
+        <v>11.76745900403153</v>
+      </c>
+      <c r="O25">
+        <v>23.7324175244954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.95342597174051</v>
+        <v>20.85698743277277</v>
       </c>
       <c r="C2">
-        <v>13.45313084640486</v>
+        <v>15.68449929104092</v>
       </c>
       <c r="D2">
-        <v>3.396603964360912</v>
+        <v>7.527369038226536</v>
       </c>
       <c r="E2">
-        <v>11.59389830881487</v>
+        <v>11.07116105781761</v>
       </c>
       <c r="F2">
-        <v>29.11091191037211</v>
+        <v>23.12286061441485</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.82731167447622</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.335912566158253</v>
       </c>
       <c r="K2">
-        <v>17.46828725797027</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.65979904722521</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.1072317646326</v>
+        <v>11.5651025830955</v>
       </c>
       <c r="O2">
-        <v>22.43495070646293</v>
+        <v>15.53734497657911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.54772361936016</v>
+        <v>19.46921292956114</v>
       </c>
       <c r="C3">
-        <v>12.54589041533112</v>
+        <v>14.6502790724708</v>
       </c>
       <c r="D3">
-        <v>3.478794815888894</v>
+        <v>7.210875851483496</v>
       </c>
       <c r="E3">
-        <v>10.9187035342748</v>
+        <v>10.60522368423557</v>
       </c>
       <c r="F3">
-        <v>27.75314827856707</v>
+        <v>22.37753936494879</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.9453317606454</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.214840119291373</v>
       </c>
       <c r="K3">
-        <v>16.27691877605422</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.44063982383449</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.3447480961323</v>
+        <v>11.66022380213984</v>
       </c>
       <c r="O3">
-        <v>21.571494825576</v>
+        <v>15.22469709661994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.63876517261332</v>
+        <v>18.56641247881081</v>
       </c>
       <c r="C4">
-        <v>11.96024437741401</v>
+        <v>13.97802263946132</v>
       </c>
       <c r="D4">
-        <v>3.529298004734951</v>
+        <v>7.012487560697226</v>
       </c>
       <c r="E4">
-        <v>10.49623454531824</v>
+        <v>10.31514701119664</v>
       </c>
       <c r="F4">
-        <v>26.91928809601417</v>
+        <v>21.9309128905936</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.03180979197468</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.143125244762213</v>
       </c>
       <c r="K4">
-        <v>15.50714665896513</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.65442963674879</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.49419152918947</v>
+        <v>11.72237194989404</v>
       </c>
       <c r="O4">
-        <v>21.05007553403365</v>
+        <v>15.0466000784817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.25668078399238</v>
+        <v>18.18569939393607</v>
       </c>
       <c r="C5">
-        <v>11.71431891266723</v>
+        <v>13.69466608630111</v>
       </c>
       <c r="D5">
-        <v>3.549916320683782</v>
+        <v>6.930735252703468</v>
       </c>
       <c r="E5">
-        <v>10.32221992612389</v>
+        <v>10.19610481559487</v>
       </c>
       <c r="F5">
-        <v>26.57979500467196</v>
+        <v>21.75189137746434</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.07037518252321</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.114578519696842</v>
       </c>
       <c r="K5">
-        <v>15.18372493247796</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.32444588943067</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.55600483191049</v>
+        <v>11.7486204566347</v>
       </c>
       <c r="O5">
-        <v>20.83996323688936</v>
+        <v>14.97749869349249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.19252657889562</v>
+        <v>18.12170646147638</v>
       </c>
       <c r="C6">
-        <v>11.67304197830362</v>
+        <v>13.64704567937266</v>
       </c>
       <c r="D6">
-        <v>3.553343049004921</v>
+        <v>6.917109130765013</v>
       </c>
       <c r="E6">
-        <v>10.29321756601358</v>
+        <v>10.17629295090475</v>
       </c>
       <c r="F6">
-        <v>26.52345296189626</v>
+        <v>21.72235143160727</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.07697411756203</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.109879782702513</v>
       </c>
       <c r="K6">
-        <v>15.12943008344598</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.26906910244069</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.56632431863413</v>
+        <v>11.75303421092343</v>
       </c>
       <c r="O6">
-        <v>20.80522278186879</v>
+        <v>14.96623366561025</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.63365971559035</v>
+        <v>18.56133001914507</v>
       </c>
       <c r="C7">
-        <v>11.95695727355954</v>
+        <v>13.9742393331301</v>
       </c>
       <c r="D7">
-        <v>3.529575881427325</v>
+        <v>7.01138853435653</v>
       </c>
       <c r="E7">
-        <v>10.49389502958704</v>
+        <v>10.31354470285251</v>
       </c>
       <c r="F7">
-        <v>26.91470779104516</v>
+        <v>21.9284861826254</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.03231669187072</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.142737487158897</v>
       </c>
       <c r="K7">
-        <v>15.50282442993409</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.65001838286692</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.49502145415115</v>
+        <v>11.72272223419504</v>
       </c>
       <c r="O7">
-        <v>21.04723204830115</v>
+        <v>15.04565411186154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47816557215952</v>
+        <v>20.38896543222025</v>
       </c>
       <c r="C8">
-        <v>13.14619872629115</v>
+        <v>15.33560266755384</v>
       </c>
       <c r="D8">
-        <v>3.424953395074953</v>
+        <v>7.419148570403183</v>
       </c>
       <c r="E8">
-        <v>11.36279481279928</v>
+        <v>10.9114292011675</v>
       </c>
       <c r="F8">
-        <v>28.64298898399155</v>
+        <v>22.86371819296425</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.86497409766365</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.293633157836255</v>
       </c>
       <c r="K8">
-        <v>17.0653758550097</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.24716254538133</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.1883820494293</v>
+        <v>11.59711172435881</v>
       </c>
       <c r="O8">
-        <v>22.13551135389011</v>
+        <v>15.42666132111418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.73846563098157</v>
+        <v>23.57378026835568</v>
       </c>
       <c r="C9">
-        <v>15.25551993403977</v>
+        <v>17.71188961211874</v>
       </c>
       <c r="D9">
-        <v>3.218669210932434</v>
+        <v>8.182289158073774</v>
       </c>
       <c r="E9">
-        <v>13.03994325460548</v>
+        <v>12.04584196253199</v>
       </c>
       <c r="F9">
-        <v>32.01853091795821</v>
+        <v>24.77591120062169</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.65735925464227</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.609548231559138</v>
       </c>
       <c r="K9">
-        <v>19.83144689047355</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.08706905382656</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.61551844857424</v>
+        <v>11.38141448195688</v>
       </c>
       <c r="O9">
-        <v>24.33297066373463</v>
+        <v>16.28387996611325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.92683185784623</v>
+        <v>25.67486689053057</v>
       </c>
       <c r="C10">
-        <v>16.67598128222843</v>
+        <v>19.28220993363641</v>
       </c>
       <c r="D10">
-        <v>3.064213696251318</v>
+        <v>8.716010281155519</v>
       </c>
       <c r="E10">
-        <v>14.38518758074969</v>
+        <v>12.84905133560648</v>
       </c>
       <c r="F10">
-        <v>34.47970918831889</v>
+        <v>26.21732877265543</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.59171661019811</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.852779844431545</v>
       </c>
       <c r="K10">
-        <v>21.69050409897573</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.00565294542178</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.21205286407537</v>
+        <v>11.24302284164708</v>
       </c>
       <c r="O10">
-        <v>25.98076305366456</v>
+        <v>16.98023274845792</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.87998804035851</v>
+        <v>26.57989673633077</v>
       </c>
       <c r="C11">
-        <v>17.29580215249377</v>
+        <v>19.95926362380277</v>
       </c>
       <c r="D11">
-        <v>2.992748351640393</v>
+        <v>8.952223048611764</v>
       </c>
       <c r="E11">
-        <v>14.977700141478</v>
+        <v>13.20680099597992</v>
       </c>
       <c r="F11">
-        <v>35.59473038236093</v>
+        <v>26.87904447255057</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.58374164757977</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.96563962628427</v>
       </c>
       <c r="K11">
-        <v>22.50076856743254</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.84456441086423</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.03243311442455</v>
+        <v>11.18477798481366</v>
       </c>
       <c r="O11">
-        <v>26.73743495944327</v>
+        <v>17.31125315213814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.23506795643522</v>
+        <v>26.91539638210738</v>
       </c>
       <c r="C12">
-        <v>17.52688104664348</v>
+        <v>20.21035236964122</v>
       </c>
       <c r="D12">
-        <v>2.96545858361367</v>
+        <v>9.040678548339267</v>
       </c>
       <c r="E12">
-        <v>15.19948420205844</v>
+        <v>13.34110810840486</v>
       </c>
       <c r="F12">
-        <v>36.01636766412115</v>
+        <v>27.13035275103673</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.58412377541722</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.008679348533558</v>
       </c>
       <c r="K12">
-        <v>22.80269767349892</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.15760757976381</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.965004796599</v>
+        <v>11.16343254018957</v>
       </c>
       <c r="O12">
-        <v>27.02503918492528</v>
+        <v>17.4386294313525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.15885185889983</v>
+        <v>26.84346005675526</v>
       </c>
       <c r="C13">
-        <v>17.47727300557631</v>
+        <v>20.15651039761761</v>
       </c>
       <c r="D13">
-        <v>2.971346980909225</v>
+        <v>9.021672878913492</v>
       </c>
       <c r="E13">
-        <v>15.1518305076148</v>
+        <v>13.31223535991946</v>
       </c>
       <c r="F13">
-        <v>35.92558513784814</v>
+        <v>27.07619831841551</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.5838860905179</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.999396762989683</v>
       </c>
       <c r="K13">
-        <v>22.73788646659855</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.09039022112385</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.979499908589</v>
+        <v>11.1679974955723</v>
       </c>
       <c r="O13">
-        <v>26.96304947065665</v>
+        <v>17.41110688588352</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.90931672115123</v>
+        <v>26.6076426064969</v>
       </c>
       <c r="C14">
-        <v>17.31488502029972</v>
+        <v>19.98002660926741</v>
       </c>
       <c r="D14">
-        <v>2.990508100709738</v>
+        <v>8.959520471078235</v>
       </c>
       <c r="E14">
-        <v>14.99599701743944</v>
+        <v>13.21787419133212</v>
       </c>
       <c r="F14">
-        <v>35.62943002609064</v>
+        <v>26.89970576639769</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.58370343579413</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.969174556908523</v>
       </c>
       <c r="K14">
-        <v>22.52570548106729</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.87041010048537</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.02687373140134</v>
+        <v>11.18300743871049</v>
       </c>
       <c r="O14">
-        <v>26.76107440241827</v>
+        <v>17.32169198834507</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.75571333227177</v>
+        <v>26.46226050714167</v>
       </c>
       <c r="C15">
-        <v>17.21494940168224</v>
+        <v>19.87123742137583</v>
       </c>
       <c r="D15">
-        <v>3.002213489071646</v>
+        <v>8.92131977799777</v>
       </c>
       <c r="E15">
-        <v>14.90021417567397</v>
+        <v>13.15992185404992</v>
       </c>
       <c r="F15">
-        <v>35.44795208631426</v>
+        <v>26.79169071233368</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.58404220548188</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.950701502202071</v>
       </c>
       <c r="K15">
-        <v>22.39510644119197</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7350698136981</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.05596936188637</v>
+        <v>11.19229504643473</v>
       </c>
       <c r="O15">
-        <v>26.63750058765992</v>
+        <v>17.26718601439568</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.86370790601773</v>
+        <v>25.61470667094351</v>
       </c>
       <c r="C16">
-        <v>16.63495713002049</v>
+        <v>19.2372179903707</v>
       </c>
       <c r="D16">
-        <v>3.068855427361801</v>
+        <v>8.700436556124576</v>
       </c>
       <c r="E16">
-        <v>14.34609143426707</v>
+        <v>12.8255117884307</v>
       </c>
       <c r="F16">
-        <v>34.40675098102404</v>
+        <v>26.17419296659418</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.59269992927463</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.84544729315245</v>
       </c>
       <c r="K16">
-        <v>21.63685461208546</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.95016620928183</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.22387226861163</v>
+        <v>11.24692683852724</v>
       </c>
       <c r="O16">
-        <v>25.93145824600786</v>
+        <v>16.95888446883873</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.30580273824987</v>
+        <v>25.08181659563372</v>
       </c>
       <c r="C17">
-        <v>16.27250600691335</v>
+        <v>18.83876155593231</v>
       </c>
       <c r="D17">
-        <v>3.109393469890818</v>
+        <v>8.563209733774983</v>
       </c>
       <c r="E17">
-        <v>14.00131487689822</v>
+        <v>12.61835328097181</v>
       </c>
       <c r="F17">
-        <v>33.76685021167318</v>
+        <v>25.79681324369509</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.60379721154333</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.781431818603314</v>
       </c>
       <c r="K17">
-        <v>21.16274909298363</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.46013950673906</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.32789401230631</v>
+        <v>11.2816708094651</v>
       </c>
       <c r="O17">
-        <v>25.50015549332235</v>
+        <v>16.77338348012324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.98091001512313</v>
+        <v>24.77052880072639</v>
       </c>
       <c r="C18">
-        <v>16.06154277427353</v>
+        <v>18.60606557287759</v>
       </c>
       <c r="D18">
-        <v>3.132600316719975</v>
+        <v>8.483663279219</v>
       </c>
       <c r="E18">
-        <v>13.80116420795476</v>
+        <v>12.49848545731746</v>
       </c>
       <c r="F18">
-        <v>33.39835584256969</v>
+        <v>25.58032612680283</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.61222461908549</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.744820891252848</v>
       </c>
       <c r="K18">
-        <v>20.88670851223275</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.17508634310531</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.38809122302425</v>
+        <v>11.30209579659697</v>
       </c>
       <c r="O18">
-        <v>25.2527416953216</v>
+        <v>16.66803043334669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.87021321707749</v>
+        <v>24.66430801748224</v>
       </c>
       <c r="C19">
-        <v>15.98968197139951</v>
+        <v>18.52667317394378</v>
       </c>
       <c r="D19">
-        <v>3.140440485231726</v>
+        <v>8.456625819706307</v>
       </c>
       <c r="E19">
-        <v>13.73307393220141</v>
+        <v>12.45777968194765</v>
       </c>
       <c r="F19">
-        <v>33.27351392327601</v>
+        <v>25.50713001746055</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.61542142439643</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.732461495206636</v>
       </c>
       <c r="K19">
-        <v>20.79266536698392</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.07801542199444</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.40853532660177</v>
+        <v>11.30908615296404</v>
       </c>
       <c r="O19">
-        <v>25.16908444329816</v>
+        <v>16.63259095385092</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.3656051349217</v>
+        <v>25.13903813015941</v>
       </c>
       <c r="C20">
-        <v>16.31134627835512</v>
+        <v>18.88154118463673</v>
       </c>
       <c r="D20">
-        <v>3.105089837525443</v>
+        <v>8.577882017595535</v>
       </c>
       <c r="E20">
-        <v>14.03820638101317</v>
+        <v>12.64048027555611</v>
       </c>
       <c r="F20">
-        <v>33.83501415505841</v>
+        <v>25.83692784293489</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.60240244579432</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.788224859505301</v>
       </c>
       <c r="K20">
-        <v>21.21356355910964</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.51263354064033</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.31678262023186</v>
+        <v>11.27792636307001</v>
       </c>
       <c r="O20">
-        <v>25.54599991027518</v>
+        <v>16.7929916346687</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.9827683296831</v>
+        <v>26.67710304294231</v>
       </c>
       <c r="C21">
-        <v>17.36267959412594</v>
+        <v>20.03200738332418</v>
       </c>
       <c r="D21">
-        <v>2.984886656274912</v>
+        <v>8.977803415020109</v>
       </c>
       <c r="E21">
-        <v>15.0418375203792</v>
+        <v>13.24562241680375</v>
       </c>
       <c r="F21">
-        <v>35.71643322491416</v>
+        <v>26.95152698711989</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.58366271341975</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.978043465676659</v>
       </c>
       <c r="K21">
-        <v>22.58815952351108</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.93514736592241</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.01294261383677</v>
+        <v>11.17857908795091</v>
       </c>
       <c r="O21">
-        <v>26.82036965967105</v>
+        <v>17.34790048909277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.00564688843518</v>
+        <v>27.64030181731399</v>
       </c>
       <c r="C22">
-        <v>18.02869220488851</v>
+        <v>20.75306341308169</v>
       </c>
       <c r="D22">
-        <v>2.904970845787515</v>
+        <v>9.233371956196946</v>
       </c>
       <c r="E22">
-        <v>15.68280297927617</v>
+        <v>13.63430890273352</v>
       </c>
       <c r="F22">
-        <v>36.94266311035138</v>
+        <v>27.68420149521201</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.5913642402109</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.103856651074671</v>
       </c>
       <c r="K22">
-        <v>23.45807974250434</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.83795853519126</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.81782506128273</v>
+        <v>11.11780961886089</v>
       </c>
       <c r="O22">
-        <v>27.65954288274056</v>
+        <v>17.72236726533868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.46274936794018</v>
+        <v>27.1300400198226</v>
       </c>
       <c r="C23">
-        <v>17.67510241340528</v>
+        <v>20.37102123885422</v>
       </c>
       <c r="D23">
-        <v>2.947767418976448</v>
+        <v>9.097513997832056</v>
       </c>
       <c r="E23">
-        <v>15.34200083320782</v>
+        <v>13.42750027007149</v>
       </c>
       <c r="F23">
-        <v>36.28846692081522</v>
+        <v>27.29280957807834</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.58534384596124</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.036551747076068</v>
       </c>
       <c r="K23">
-        <v>22.99632097123074</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.3584863300028</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.92163436123219</v>
+        <v>11.14985100197595</v>
       </c>
       <c r="O23">
-        <v>27.21105122162189</v>
+        <v>17.52143391275114</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.33858140106616</v>
+        <v>25.11318361227277</v>
       </c>
       <c r="C24">
-        <v>16.29379465566369</v>
+        <v>18.86221178891777</v>
       </c>
       <c r="D24">
-        <v>3.107035814107374</v>
+        <v>8.571250708113883</v>
       </c>
       <c r="E24">
-        <v>14.02153377150156</v>
+        <v>12.63047905326106</v>
       </c>
       <c r="F24">
-        <v>33.80419913010036</v>
+        <v>25.81879054727385</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.60302666139389</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.785153125115449</v>
       </c>
       <c r="K24">
-        <v>21.19060116478671</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.48891137841121</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.3218048560453</v>
+        <v>11.27961782744658</v>
       </c>
       <c r="O24">
-        <v>25.52527194579682</v>
+        <v>16.78412275587922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.89362388200425</v>
+        <v>22.75447978916973</v>
       </c>
       <c r="C25">
-        <v>14.70811220088602</v>
+        <v>17.10012086765208</v>
       </c>
       <c r="D25">
-        <v>3.27480816733881</v>
+        <v>7.980282656518899</v>
       </c>
       <c r="E25">
-        <v>12.56491585134706</v>
+        <v>11.74383170672098</v>
       </c>
       <c r="F25">
-        <v>31.10819902868608</v>
+        <v>24.25145526922995</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.69926608463142</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.522054650922398</v>
       </c>
       <c r="K25">
-        <v>19.11423079452952</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.34908019804839</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.76745900403153</v>
+        <v>11.43635051651871</v>
       </c>
       <c r="O25">
-        <v>23.7324175244954</v>
+        <v>16.04022470089571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85698743277277</v>
+        <v>14.22178750299507</v>
       </c>
       <c r="C2">
-        <v>15.68449929104092</v>
+        <v>9.393696377227116</v>
       </c>
       <c r="D2">
-        <v>7.527369038226536</v>
+        <v>9.703837241471211</v>
       </c>
       <c r="E2">
-        <v>11.07116105781761</v>
+        <v>13.86929718835303</v>
       </c>
       <c r="F2">
-        <v>23.12286061441485</v>
+        <v>30.11101205632313</v>
       </c>
       <c r="I2">
-        <v>11.82731167447622</v>
+        <v>19.67133455059014</v>
       </c>
       <c r="J2">
-        <v>6.335912566158253</v>
+        <v>9.798452562305373</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.5651025830955</v>
+        <v>16.57561220254406</v>
       </c>
       <c r="O2">
-        <v>15.53734497657911</v>
+        <v>22.23624642048586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.46921292956114</v>
+        <v>13.66403666633304</v>
       </c>
       <c r="C3">
-        <v>14.6502790724708</v>
+        <v>8.89470672416814</v>
       </c>
       <c r="D3">
-        <v>7.210875851483496</v>
+        <v>9.659539720371111</v>
       </c>
       <c r="E3">
-        <v>10.60522368423557</v>
+        <v>13.81211111198105</v>
       </c>
       <c r="F3">
-        <v>22.37753936494879</v>
+        <v>30.09216981917435</v>
       </c>
       <c r="I3">
-        <v>11.9453317606454</v>
+        <v>19.77229499921416</v>
       </c>
       <c r="J3">
-        <v>6.214840119291373</v>
+        <v>9.803993625391232</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.66022380213984</v>
+        <v>16.61480622921754</v>
       </c>
       <c r="O3">
-        <v>15.22469709661994</v>
+        <v>22.27421354860364</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56641247881081</v>
+        <v>13.31105359881824</v>
       </c>
       <c r="C4">
-        <v>13.97802263946132</v>
+        <v>8.573939683486794</v>
       </c>
       <c r="D4">
-        <v>7.012487560697226</v>
+        <v>9.633791041157938</v>
       </c>
       <c r="E4">
-        <v>10.31514701119664</v>
+        <v>13.77976551609266</v>
       </c>
       <c r="F4">
-        <v>21.9309128905936</v>
+        <v>30.08933451730035</v>
       </c>
       <c r="I4">
-        <v>12.03180979197468</v>
+        <v>19.83900404398441</v>
       </c>
       <c r="J4">
-        <v>6.143125244762213</v>
+        <v>9.809027471025242</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.72237194989404</v>
+        <v>16.64065590125056</v>
       </c>
       <c r="O4">
-        <v>15.0466000784817</v>
+        <v>22.30359263973623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18569939393607</v>
+        <v>13.16477447573081</v>
       </c>
       <c r="C5">
-        <v>13.69466608630111</v>
+        <v>8.43973457570795</v>
       </c>
       <c r="D5">
-        <v>6.930735252703468</v>
+        <v>9.623670518990407</v>
       </c>
       <c r="E5">
-        <v>10.19610481559487</v>
+        <v>13.76729008282412</v>
       </c>
       <c r="F5">
-        <v>21.75189137746434</v>
+        <v>30.09037584019203</v>
       </c>
       <c r="I5">
-        <v>12.07037518252321</v>
+        <v>19.86737241629763</v>
       </c>
       <c r="J5">
-        <v>6.114578519696842</v>
+        <v>9.811489339460577</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.7486204566347</v>
+        <v>16.65163923458543</v>
       </c>
       <c r="O5">
-        <v>14.97749869349249</v>
+        <v>22.31708586296805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12170646147638</v>
+        <v>13.14034444435402</v>
       </c>
       <c r="C6">
-        <v>13.64704567937266</v>
+        <v>8.417243336494382</v>
       </c>
       <c r="D6">
-        <v>6.917109130765013</v>
+        <v>9.622012712074538</v>
       </c>
       <c r="E6">
-        <v>10.17629295090475</v>
+        <v>13.76526143887667</v>
       </c>
       <c r="F6">
-        <v>21.72235143160727</v>
+        <v>30.09068140754558</v>
       </c>
       <c r="I6">
-        <v>12.07697411756203</v>
+        <v>19.87215438875328</v>
       </c>
       <c r="J6">
-        <v>6.109879782702513</v>
+        <v>9.811922931155483</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.75303421092343</v>
+        <v>16.65349017066822</v>
       </c>
       <c r="O6">
-        <v>14.96623366561025</v>
+        <v>22.31941812057871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.56133001914507</v>
+        <v>13.30909039399485</v>
       </c>
       <c r="C7">
-        <v>13.9742393331301</v>
+        <v>8.572143691080161</v>
       </c>
       <c r="D7">
-        <v>7.01138853435653</v>
+        <v>9.633653035207201</v>
       </c>
       <c r="E7">
-        <v>10.31354470285251</v>
+        <v>13.77959439841273</v>
       </c>
       <c r="F7">
-        <v>21.9284861826254</v>
+        <v>30.08933966717665</v>
       </c>
       <c r="I7">
-        <v>12.03231669187072</v>
+        <v>19.83938183980957</v>
       </c>
       <c r="J7">
-        <v>6.142737487158897</v>
+        <v>9.809059010158386</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.72272223419504</v>
+        <v>16.6408022058844</v>
       </c>
       <c r="O7">
-        <v>15.04565411186154</v>
+        <v>22.30376846215638</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.38896543222025</v>
+        <v>14.03177754272033</v>
       </c>
       <c r="C8">
-        <v>15.33560266755384</v>
+        <v>9.224699694391674</v>
       </c>
       <c r="D8">
-        <v>7.419148570403183</v>
+        <v>9.688267172098975</v>
       </c>
       <c r="E8">
-        <v>10.9114292011675</v>
+        <v>13.84901136460697</v>
       </c>
       <c r="F8">
-        <v>22.86371819296425</v>
+        <v>30.10270338333558</v>
       </c>
       <c r="I8">
-        <v>11.86497409766365</v>
+        <v>19.70516465932629</v>
       </c>
       <c r="J8">
-        <v>6.293633157836255</v>
+        <v>9.800024666501896</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.59711172435881</v>
+        <v>16.58875636316404</v>
       </c>
       <c r="O8">
-        <v>15.42666132111418</v>
+        <v>22.24807565219316</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57378026835568</v>
+        <v>15.35742809848724</v>
       </c>
       <c r="C9">
-        <v>17.71188961211874</v>
+        <v>10.38572983715074</v>
       </c>
       <c r="D9">
-        <v>8.182289158073774</v>
+        <v>9.806518158540282</v>
       </c>
       <c r="E9">
-        <v>12.04584196253199</v>
+        <v>14.00661780036642</v>
       </c>
       <c r="F9">
-        <v>24.77591120062169</v>
+        <v>30.19810684302154</v>
       </c>
       <c r="I9">
-        <v>11.65735925464227</v>
+        <v>19.47953020030416</v>
       </c>
       <c r="J9">
-        <v>6.609548231559138</v>
+        <v>9.795239350197669</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.38141448195688</v>
+        <v>16.50082290419506</v>
       </c>
       <c r="O9">
-        <v>16.28387996611325</v>
+        <v>22.1871833616693</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67486689053057</v>
+        <v>16.26633074300061</v>
       </c>
       <c r="C10">
-        <v>19.28220993363641</v>
+        <v>11.16169228561544</v>
       </c>
       <c r="D10">
-        <v>8.716010281155519</v>
+        <v>9.899696528500931</v>
       </c>
       <c r="E10">
-        <v>12.84905133560648</v>
+        <v>14.13481746408141</v>
       </c>
       <c r="F10">
-        <v>26.21732877265543</v>
+        <v>30.31012993904289</v>
       </c>
       <c r="I10">
-        <v>11.59171661019811</v>
+        <v>19.33682660710989</v>
       </c>
       <c r="J10">
-        <v>6.852779844431545</v>
+        <v>9.799580493783672</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.24302284164708</v>
+        <v>16.44479100444383</v>
       </c>
       <c r="O10">
-        <v>16.98023274845792</v>
+        <v>22.17211329713682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57989673633077</v>
+        <v>16.66413035629527</v>
       </c>
       <c r="C11">
-        <v>19.95926362380277</v>
+        <v>11.49726837044941</v>
       </c>
       <c r="D11">
-        <v>8.952223048611764</v>
+        <v>9.94333961941091</v>
       </c>
       <c r="E11">
-        <v>13.20680099597992</v>
+        <v>14.19567025463478</v>
       </c>
       <c r="F11">
-        <v>26.87904447255057</v>
+        <v>30.37010287608278</v>
       </c>
       <c r="I11">
-        <v>11.58374164757977</v>
+        <v>19.27695396906607</v>
       </c>
       <c r="J11">
-        <v>6.96563962628427</v>
+        <v>9.803253196481377</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.18477798481366</v>
+        <v>16.42115394043358</v>
       </c>
       <c r="O11">
-        <v>17.31125315213814</v>
+        <v>22.17173033711754</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91539638210738</v>
+        <v>16.81240739323338</v>
       </c>
       <c r="C12">
-        <v>20.21035236964122</v>
+        <v>11.62179498719444</v>
       </c>
       <c r="D12">
-        <v>9.040678548339267</v>
+        <v>9.96003658024082</v>
       </c>
       <c r="E12">
-        <v>13.34110810840486</v>
+        <v>14.21906326675258</v>
       </c>
       <c r="F12">
-        <v>27.13035275103673</v>
+        <v>30.39409804200024</v>
       </c>
       <c r="I12">
-        <v>11.58412377541722</v>
+        <v>19.25501035278474</v>
       </c>
       <c r="J12">
-        <v>7.008679348533558</v>
+        <v>9.804887145941498</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.16343254018957</v>
+        <v>16.4124689268118</v>
       </c>
       <c r="O12">
-        <v>17.4386294313525</v>
+        <v>22.17251733069071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84346005675526</v>
+        <v>16.78057985393064</v>
       </c>
       <c r="C13">
-        <v>20.15651039761761</v>
+        <v>11.59508992327103</v>
       </c>
       <c r="D13">
-        <v>9.021672878913492</v>
+        <v>9.956433185166812</v>
       </c>
       <c r="E13">
-        <v>13.31223535991946</v>
+        <v>14.2140098697264</v>
       </c>
       <c r="F13">
-        <v>27.07619831841551</v>
+        <v>30.38887331656099</v>
       </c>
       <c r="I13">
-        <v>11.5838860905179</v>
+        <v>19.25970383035587</v>
       </c>
       <c r="J13">
-        <v>6.999396762989683</v>
+        <v>9.804524447450328</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.1679974955723</v>
+        <v>16.41432758491265</v>
       </c>
       <c r="O13">
-        <v>17.41110688588352</v>
+        <v>22.17230637381909</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.6076426064969</v>
+        <v>16.67637708329382</v>
       </c>
       <c r="C14">
-        <v>19.98002660926741</v>
+        <v>11.50756455442094</v>
       </c>
       <c r="D14">
-        <v>8.959520471078235</v>
+        <v>9.944709935969499</v>
       </c>
       <c r="E14">
-        <v>13.21787419133212</v>
+        <v>14.19758789786504</v>
       </c>
       <c r="F14">
-        <v>26.89970576639769</v>
+        <v>30.37205129698296</v>
       </c>
       <c r="I14">
-        <v>11.58370343579413</v>
+        <v>19.27513402680538</v>
       </c>
       <c r="J14">
-        <v>6.969174556908523</v>
+        <v>9.803382754978617</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.18300743871049</v>
+        <v>16.42043409434962</v>
       </c>
       <c r="O14">
-        <v>17.32169198834507</v>
+        <v>22.17177640003393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.46226050714167</v>
+        <v>16.61223944208494</v>
       </c>
       <c r="C15">
-        <v>19.87123742137583</v>
+        <v>11.45361964621843</v>
       </c>
       <c r="D15">
-        <v>8.92131977799777</v>
+        <v>9.937550970903681</v>
       </c>
       <c r="E15">
-        <v>13.15992185404992</v>
+        <v>14.18757400959689</v>
       </c>
       <c r="F15">
-        <v>26.79169071233368</v>
+        <v>30.36191426282703</v>
       </c>
       <c r="I15">
-        <v>11.58404220548188</v>
+        <v>19.28468049168451</v>
       </c>
       <c r="J15">
-        <v>6.950701502202071</v>
+        <v>9.802715072665505</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.19229504643473</v>
+        <v>16.42420911185274</v>
       </c>
       <c r="O15">
-        <v>17.26718601439568</v>
+        <v>22.17157317619423</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61470667094351</v>
+        <v>16.24000876108173</v>
       </c>
       <c r="C16">
-        <v>19.2372179903707</v>
+        <v>11.13940715544857</v>
       </c>
       <c r="D16">
-        <v>8.700436556124576</v>
+        <v>9.896868744271242</v>
       </c>
       <c r="E16">
-        <v>12.8255117884307</v>
+        <v>14.13089031381768</v>
       </c>
       <c r="F16">
-        <v>26.17419296659418</v>
+        <v>30.30639100576411</v>
       </c>
       <c r="I16">
-        <v>11.59269992927463</v>
+        <v>19.34084122321659</v>
       </c>
       <c r="J16">
-        <v>6.84544729315245</v>
+        <v>9.799374559633002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.24692683852724</v>
+        <v>16.44637296825818</v>
       </c>
       <c r="O16">
-        <v>16.95888446883873</v>
+        <v>22.17226869389478</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.08181659563372</v>
+        <v>16.00756301475234</v>
       </c>
       <c r="C17">
-        <v>18.83876155593231</v>
+        <v>10.94215308315859</v>
       </c>
       <c r="D17">
-        <v>8.563209733774983</v>
+        <v>9.872225904028021</v>
       </c>
       <c r="E17">
-        <v>12.61835328097181</v>
+        <v>14.09675525868707</v>
       </c>
       <c r="F17">
-        <v>25.79681324369509</v>
+        <v>30.27463028012279</v>
       </c>
       <c r="I17">
-        <v>11.60379721154333</v>
+        <v>19.37658838957228</v>
       </c>
       <c r="J17">
-        <v>6.781431818603314</v>
+        <v>9.797759483925331</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.2816708094651</v>
+        <v>16.46044378699915</v>
       </c>
       <c r="O17">
-        <v>16.77338348012324</v>
+        <v>22.17435427923052</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.77052880072639</v>
+        <v>15.87239736474446</v>
       </c>
       <c r="C18">
-        <v>18.60606557287759</v>
+        <v>10.82706075516009</v>
       </c>
       <c r="D18">
-        <v>8.483663279219</v>
+        <v>9.858170829934402</v>
       </c>
       <c r="E18">
-        <v>12.49848545731746</v>
+        <v>14.07736114111406</v>
       </c>
       <c r="F18">
-        <v>25.58032612680283</v>
+        <v>30.25721150532634</v>
       </c>
       <c r="I18">
-        <v>11.61222461908549</v>
+        <v>19.39762375882535</v>
       </c>
       <c r="J18">
-        <v>6.744820891252848</v>
+        <v>9.796990416609434</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.30209579659697</v>
+        <v>16.4687113099656</v>
       </c>
       <c r="O18">
-        <v>16.66803043334669</v>
+        <v>22.17616304516274</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66430801748224</v>
+        <v>15.82638385594302</v>
       </c>
       <c r="C19">
-        <v>18.52667317394378</v>
+        <v>10.78781283687892</v>
       </c>
       <c r="D19">
-        <v>8.456625819706307</v>
+        <v>9.853432743171412</v>
       </c>
       <c r="E19">
-        <v>12.45777968194765</v>
+        <v>14.07083620188035</v>
       </c>
       <c r="F19">
-        <v>25.50713001746055</v>
+        <v>30.25145996519026</v>
       </c>
       <c r="I19">
-        <v>11.61542142439643</v>
+        <v>19.40482736995206</v>
       </c>
       <c r="J19">
-        <v>6.732461495206636</v>
+        <v>9.796757510904225</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.30908615296404</v>
+        <v>16.47154051335059</v>
       </c>
       <c r="O19">
-        <v>16.63259095385092</v>
+        <v>22.17688004035985</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13903813015941</v>
+        <v>16.03246013238665</v>
       </c>
       <c r="C20">
-        <v>18.88154118463673</v>
+        <v>10.96332089404359</v>
       </c>
       <c r="D20">
-        <v>8.577882017595535</v>
+        <v>9.874836951209968</v>
       </c>
       <c r="E20">
-        <v>12.64048027555611</v>
+        <v>14.10036431692911</v>
       </c>
       <c r="F20">
-        <v>25.83692784293489</v>
+        <v>30.27792345541422</v>
       </c>
       <c r="I20">
-        <v>11.60240244579432</v>
+        <v>19.37273390359699</v>
       </c>
       <c r="J20">
-        <v>6.788224859505301</v>
+        <v>9.797914870988432</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.27792636307001</v>
+        <v>16.4589278823909</v>
       </c>
       <c r="O20">
-        <v>16.7929916346687</v>
+        <v>22.17406920429871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67710304294231</v>
+        <v>16.70704882982735</v>
       </c>
       <c r="C21">
-        <v>20.03200738332418</v>
+        <v>11.53334236010013</v>
       </c>
       <c r="D21">
-        <v>8.977803415020109</v>
+        <v>9.948148800849866</v>
       </c>
       <c r="E21">
-        <v>13.24562241680375</v>
+        <v>14.20240206964603</v>
       </c>
       <c r="F21">
-        <v>26.95152698711989</v>
+        <v>30.37695756497428</v>
       </c>
       <c r="I21">
-        <v>11.58366271341975</v>
+        <v>19.27058199476659</v>
       </c>
       <c r="J21">
-        <v>6.978043465676659</v>
+        <v>9.80371150649729</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.17857908795091</v>
+        <v>16.41863325390798</v>
       </c>
       <c r="O21">
-        <v>17.34790048909277</v>
+        <v>22.17190676523563</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64030181731399</v>
+        <v>17.13412968299707</v>
       </c>
       <c r="C22">
-        <v>20.75306341308169</v>
+        <v>11.89101370767598</v>
       </c>
       <c r="D22">
-        <v>9.233371956196946</v>
+        <v>9.997049832952587</v>
       </c>
       <c r="E22">
-        <v>13.63430890273352</v>
+        <v>14.27111872608301</v>
       </c>
       <c r="F22">
-        <v>27.68420149521201</v>
+        <v>30.44916379081078</v>
       </c>
       <c r="I22">
-        <v>11.5913642402109</v>
+        <v>19.20806980471752</v>
       </c>
       <c r="J22">
-        <v>7.103856651074671</v>
+        <v>9.808916807395216</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11780961886089</v>
+        <v>16.39384761975925</v>
       </c>
       <c r="O22">
-        <v>17.72236726533868</v>
+        <v>22.17592601907446</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1300400198226</v>
+        <v>16.90748343254122</v>
       </c>
       <c r="C23">
-        <v>20.37102123885422</v>
+        <v>11.70149088636069</v>
       </c>
       <c r="D23">
-        <v>9.097513997832056</v>
+        <v>9.970863548017119</v>
       </c>
       <c r="E23">
-        <v>13.42750027007149</v>
+        <v>14.23426280502714</v>
       </c>
       <c r="F23">
-        <v>27.29280957807834</v>
+        <v>30.40994563191641</v>
       </c>
       <c r="I23">
-        <v>11.58534384596124</v>
+        <v>19.2410436802453</v>
       </c>
       <c r="J23">
-        <v>7.036551747076068</v>
+        <v>9.806009357464825</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14985100197595</v>
+        <v>16.40693458666689</v>
       </c>
       <c r="O23">
-        <v>17.52143391275114</v>
+        <v>22.17328356610405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.11318361227277</v>
+        <v>16.02120890112276</v>
       </c>
       <c r="C24">
-        <v>18.86221178891777</v>
+        <v>10.95375618206871</v>
       </c>
       <c r="D24">
-        <v>8.571250708113883</v>
+        <v>9.873656145821265</v>
       </c>
       <c r="E24">
-        <v>12.63047905326106</v>
+        <v>14.09873194234455</v>
       </c>
       <c r="F24">
-        <v>25.81879054727385</v>
+        <v>30.27643199067555</v>
       </c>
       <c r="I24">
-        <v>11.60302666139389</v>
+        <v>19.37447500978001</v>
       </c>
       <c r="J24">
-        <v>6.785153125115449</v>
+        <v>9.797844123719145</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.27961782744658</v>
+        <v>16.45961266828393</v>
       </c>
       <c r="O24">
-        <v>16.78412275587922</v>
+        <v>22.17419618745639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75447978916973</v>
+        <v>15.00963879198643</v>
       </c>
       <c r="C25">
-        <v>17.10012086765208</v>
+        <v>10.08489064325116</v>
       </c>
       <c r="D25">
-        <v>7.980282656518899</v>
+        <v>9.7733842007842</v>
       </c>
       <c r="E25">
-        <v>11.74383170672098</v>
+        <v>13.9617494639214</v>
       </c>
       <c r="F25">
-        <v>24.25145526922995</v>
+        <v>30.16490827828015</v>
       </c>
       <c r="I25">
-        <v>11.69926608463142</v>
+        <v>19.53653142203353</v>
       </c>
       <c r="J25">
-        <v>6.522054650922398</v>
+        <v>9.79515171468436</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.43635051651871</v>
+        <v>16.52310291909213</v>
       </c>
       <c r="O25">
-        <v>16.04022470089571</v>
+        <v>22.19845889362142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22178750299507</v>
+        <v>20.85698743277286</v>
       </c>
       <c r="C2">
-        <v>9.393696377227116</v>
+        <v>15.68449929104091</v>
       </c>
       <c r="D2">
-        <v>9.703837241471211</v>
+        <v>7.527369038226492</v>
       </c>
       <c r="E2">
-        <v>13.86929718835303</v>
+        <v>11.07116105781766</v>
       </c>
       <c r="F2">
-        <v>30.11101205632313</v>
+        <v>23.12286061441468</v>
       </c>
       <c r="I2">
-        <v>19.67133455059014</v>
+        <v>11.82731167447597</v>
       </c>
       <c r="J2">
-        <v>9.798452562305373</v>
+        <v>6.335912566158361</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.57561220254406</v>
+        <v>11.56510258309544</v>
       </c>
       <c r="O2">
-        <v>22.23624642048586</v>
+        <v>15.53734497657894</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.66403666633304</v>
+        <v>19.46921292956109</v>
       </c>
       <c r="C3">
-        <v>8.89470672416814</v>
+        <v>14.65027907247083</v>
       </c>
       <c r="D3">
-        <v>9.659539720371111</v>
+        <v>7.210875851483474</v>
       </c>
       <c r="E3">
-        <v>13.81211111198105</v>
+        <v>10.60522368423558</v>
       </c>
       <c r="F3">
-        <v>30.09216981917435</v>
+        <v>22.3775393649489</v>
       </c>
       <c r="I3">
-        <v>19.77229499921416</v>
+        <v>11.94533176064554</v>
       </c>
       <c r="J3">
-        <v>9.803993625391232</v>
+        <v>6.214840119291417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.61480622921754</v>
+        <v>11.6602238021399</v>
       </c>
       <c r="O3">
-        <v>22.27421354860364</v>
+        <v>15.22469709662005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.31105359881824</v>
+        <v>18.56641247881083</v>
       </c>
       <c r="C4">
-        <v>8.573939683486794</v>
+        <v>13.97802263946132</v>
       </c>
       <c r="D4">
-        <v>9.633791041157938</v>
+        <v>7.012487560697147</v>
       </c>
       <c r="E4">
-        <v>13.77976551609266</v>
+        <v>10.31514701119666</v>
       </c>
       <c r="F4">
-        <v>30.08933451730035</v>
+        <v>21.93091289059346</v>
       </c>
       <c r="I4">
-        <v>19.83900404398441</v>
+        <v>12.03180979197455</v>
       </c>
       <c r="J4">
-        <v>9.809027471025242</v>
+        <v>6.143125244762286</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64065590125056</v>
+        <v>11.72237194989397</v>
       </c>
       <c r="O4">
-        <v>22.30359263973623</v>
+        <v>15.04660007848157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.16477447573081</v>
+        <v>18.18569939393605</v>
       </c>
       <c r="C5">
-        <v>8.43973457570795</v>
+        <v>13.69466608630118</v>
       </c>
       <c r="D5">
-        <v>9.623670518990407</v>
+        <v>6.930735252703532</v>
       </c>
       <c r="E5">
-        <v>13.76729008282412</v>
+        <v>10.19610481559493</v>
       </c>
       <c r="F5">
-        <v>30.09037584019203</v>
+        <v>21.7518913774643</v>
       </c>
       <c r="I5">
-        <v>19.86737241629763</v>
+        <v>12.0703751825232</v>
       </c>
       <c r="J5">
-        <v>9.811489339460577</v>
+        <v>6.114578519696845</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.65163923458543</v>
+        <v>11.74862045663467</v>
       </c>
       <c r="O5">
-        <v>22.31708586296805</v>
+        <v>14.97749869349244</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.14034444435402</v>
+        <v>18.12170646147639</v>
       </c>
       <c r="C6">
-        <v>8.417243336494382</v>
+        <v>13.64704567937262</v>
       </c>
       <c r="D6">
-        <v>9.622012712074538</v>
+        <v>6.917109130764961</v>
       </c>
       <c r="E6">
-        <v>13.76526143887667</v>
+        <v>10.17629295090472</v>
       </c>
       <c r="F6">
-        <v>30.09068140754558</v>
+        <v>21.7223514316072</v>
       </c>
       <c r="I6">
-        <v>19.87215438875328</v>
+        <v>12.07697411756201</v>
       </c>
       <c r="J6">
-        <v>9.811922931155483</v>
+        <v>6.109879782702512</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.65349017066822</v>
+        <v>11.75303421092342</v>
       </c>
       <c r="O6">
-        <v>22.31941812057871</v>
+        <v>14.96623366561021</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.30909039399485</v>
+        <v>18.56133001914501</v>
       </c>
       <c r="C7">
-        <v>8.572143691080161</v>
+        <v>13.97423933313016</v>
       </c>
       <c r="D7">
-        <v>9.633653035207201</v>
+        <v>7.011388534356431</v>
       </c>
       <c r="E7">
-        <v>13.77959439841273</v>
+        <v>10.31354470285239</v>
       </c>
       <c r="F7">
-        <v>30.08933966717665</v>
+        <v>21.92848618262544</v>
       </c>
       <c r="I7">
-        <v>19.83938183980957</v>
+        <v>12.03231669187089</v>
       </c>
       <c r="J7">
-        <v>9.809059010158386</v>
+        <v>6.142737487158908</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.6408022058844</v>
+        <v>11.7227222341951</v>
       </c>
       <c r="O7">
-        <v>22.30376846215638</v>
+        <v>15.04565411186162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.03177754272033</v>
+        <v>20.38896543222029</v>
       </c>
       <c r="C8">
-        <v>9.224699694391674</v>
+        <v>15.33560266755387</v>
       </c>
       <c r="D8">
-        <v>9.688267172098975</v>
+        <v>7.419148570403131</v>
       </c>
       <c r="E8">
-        <v>13.84901136460697</v>
+        <v>10.91142920116749</v>
       </c>
       <c r="F8">
-        <v>30.10270338333558</v>
+        <v>22.86371819296421</v>
       </c>
       <c r="I8">
-        <v>19.70516465932629</v>
+        <v>11.86497409766359</v>
       </c>
       <c r="J8">
-        <v>9.800024666501896</v>
+        <v>6.293633157836259</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.58875636316404</v>
+        <v>11.59711172435877</v>
       </c>
       <c r="O8">
-        <v>22.24807565219316</v>
+        <v>15.42666132111414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.35742809848724</v>
+        <v>23.57378026835566</v>
       </c>
       <c r="C9">
-        <v>10.38572983715074</v>
+        <v>17.71188961211861</v>
       </c>
       <c r="D9">
-        <v>9.806518158540282</v>
+        <v>8.182289158073814</v>
       </c>
       <c r="E9">
-        <v>14.00661780036642</v>
+        <v>12.04584196253202</v>
       </c>
       <c r="F9">
-        <v>30.19810684302154</v>
+        <v>24.77591120062175</v>
       </c>
       <c r="I9">
-        <v>19.47953020030416</v>
+        <v>11.65735925464232</v>
       </c>
       <c r="J9">
-        <v>9.795239350197669</v>
+        <v>6.609548231559197</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.50082290419506</v>
+        <v>11.38141448195688</v>
       </c>
       <c r="O9">
-        <v>22.1871833616693</v>
+        <v>16.28387996611329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.26633074300061</v>
+        <v>25.67486689053057</v>
       </c>
       <c r="C10">
-        <v>11.16169228561544</v>
+        <v>19.2822099336365</v>
       </c>
       <c r="D10">
-        <v>9.899696528500931</v>
+        <v>8.716010281155526</v>
       </c>
       <c r="E10">
-        <v>14.13481746408141</v>
+        <v>12.84905133560648</v>
       </c>
       <c r="F10">
-        <v>30.31012993904289</v>
+        <v>26.21732877265548</v>
       </c>
       <c r="I10">
-        <v>19.33682660710989</v>
+        <v>11.59171661019819</v>
       </c>
       <c r="J10">
-        <v>9.799580493783672</v>
+        <v>6.852779844431519</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.44479100444383</v>
+        <v>11.2430228416471</v>
       </c>
       <c r="O10">
-        <v>22.17211329713682</v>
+        <v>16.98023274845796</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.66413035629527</v>
+        <v>26.57989673633078</v>
       </c>
       <c r="C11">
-        <v>11.49726837044941</v>
+        <v>19.95926362380279</v>
       </c>
       <c r="D11">
-        <v>9.94333961941091</v>
+        <v>8.95222304861182</v>
       </c>
       <c r="E11">
-        <v>14.19567025463478</v>
+        <v>13.20680099597992</v>
       </c>
       <c r="F11">
-        <v>30.37010287608278</v>
+        <v>26.87904447255065</v>
       </c>
       <c r="I11">
-        <v>19.27695396906607</v>
+        <v>11.58374164757982</v>
       </c>
       <c r="J11">
-        <v>9.803253196481377</v>
+        <v>6.965639626284234</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.42115394043358</v>
+        <v>11.18477798481368</v>
       </c>
       <c r="O11">
-        <v>22.17173033711754</v>
+        <v>17.31125315213819</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81240739323338</v>
+        <v>26.9153963821074</v>
       </c>
       <c r="C12">
-        <v>11.62179498719444</v>
+        <v>20.2103523696413</v>
       </c>
       <c r="D12">
-        <v>9.96003658024082</v>
+        <v>9.040678548339217</v>
       </c>
       <c r="E12">
-        <v>14.21906326675258</v>
+        <v>13.34110810840485</v>
       </c>
       <c r="F12">
-        <v>30.39409804200024</v>
+        <v>27.13035275103671</v>
       </c>
       <c r="I12">
-        <v>19.25501035278474</v>
+        <v>11.58412377541722</v>
       </c>
       <c r="J12">
-        <v>9.804887145941498</v>
+        <v>7.008679348533561</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.4124689268118</v>
+        <v>11.16343254018957</v>
       </c>
       <c r="O12">
-        <v>22.17251733069071</v>
+        <v>17.43862943135248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.78057985393064</v>
+        <v>26.84346005675526</v>
       </c>
       <c r="C13">
-        <v>11.59508992327103</v>
+        <v>20.15651039761761</v>
       </c>
       <c r="D13">
-        <v>9.956433185166812</v>
+        <v>9.021672878913504</v>
       </c>
       <c r="E13">
-        <v>14.2140098697264</v>
+        <v>13.31223535991945</v>
       </c>
       <c r="F13">
-        <v>30.38887331656099</v>
+        <v>27.07619831841553</v>
       </c>
       <c r="I13">
-        <v>19.25970383035587</v>
+        <v>11.5838860905179</v>
       </c>
       <c r="J13">
-        <v>9.804524447450328</v>
+        <v>6.999396762989653</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.41432758491265</v>
+        <v>11.16799749557229</v>
       </c>
       <c r="O13">
-        <v>22.17230637381909</v>
+        <v>17.41110688588353</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.67637708329382</v>
+        <v>26.60764260649691</v>
       </c>
       <c r="C14">
-        <v>11.50756455442094</v>
+        <v>19.9800266092674</v>
       </c>
       <c r="D14">
-        <v>9.944709935969499</v>
+        <v>8.959520471078248</v>
       </c>
       <c r="E14">
-        <v>14.19758789786504</v>
+        <v>13.21787419133213</v>
       </c>
       <c r="F14">
-        <v>30.37205129698296</v>
+        <v>26.89970576639772</v>
       </c>
       <c r="I14">
-        <v>19.27513402680538</v>
+        <v>11.58370343579418</v>
       </c>
       <c r="J14">
-        <v>9.803382754978617</v>
+        <v>6.969174556908523</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.42043409434962</v>
+        <v>11.18300743871052</v>
       </c>
       <c r="O14">
-        <v>22.17177640003393</v>
+        <v>17.32169198834512</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.61223944208494</v>
+        <v>26.46226050714173</v>
       </c>
       <c r="C15">
-        <v>11.45361964621843</v>
+        <v>19.87123742137599</v>
       </c>
       <c r="D15">
-        <v>9.937550970903681</v>
+        <v>8.92131977799778</v>
       </c>
       <c r="E15">
-        <v>14.18757400959689</v>
+        <v>13.15992185404993</v>
       </c>
       <c r="F15">
-        <v>30.36191426282703</v>
+        <v>26.79169071233367</v>
       </c>
       <c r="I15">
-        <v>19.28468049168451</v>
+        <v>11.58404220548185</v>
       </c>
       <c r="J15">
-        <v>9.802715072665505</v>
+        <v>6.950701502202078</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.42420911185274</v>
+        <v>11.19229504643472</v>
       </c>
       <c r="O15">
-        <v>22.17157317619423</v>
+        <v>17.26718601439564</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.24000876108173</v>
+        <v>25.6147066709436</v>
       </c>
       <c r="C16">
-        <v>11.13940715544857</v>
+        <v>19.23721799037066</v>
       </c>
       <c r="D16">
-        <v>9.896868744271242</v>
+        <v>8.700436556124576</v>
       </c>
       <c r="E16">
-        <v>14.13089031381768</v>
+        <v>12.82551178843069</v>
       </c>
       <c r="F16">
-        <v>30.30639100576411</v>
+        <v>26.17419296659415</v>
       </c>
       <c r="I16">
-        <v>19.34084122321659</v>
+        <v>11.59269992927455</v>
       </c>
       <c r="J16">
-        <v>9.799374559633002</v>
+        <v>6.845447293152445</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.44637296825818</v>
+        <v>11.2469268385272</v>
       </c>
       <c r="O16">
-        <v>22.17226869389478</v>
+        <v>16.95888446883868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.00756301475234</v>
+        <v>25.08181659563378</v>
       </c>
       <c r="C17">
-        <v>10.94215308315859</v>
+        <v>18.83876155593233</v>
       </c>
       <c r="D17">
-        <v>9.872225904028021</v>
+        <v>8.563209733774983</v>
       </c>
       <c r="E17">
-        <v>14.09675525868707</v>
+        <v>12.61835328097185</v>
       </c>
       <c r="F17">
-        <v>30.27463028012279</v>
+        <v>25.79681324369506</v>
       </c>
       <c r="I17">
-        <v>19.37658838957228</v>
+        <v>11.60379721154325</v>
       </c>
       <c r="J17">
-        <v>9.797759483925331</v>
+        <v>6.781431818603341</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.46044378699915</v>
+        <v>11.28167080946508</v>
       </c>
       <c r="O17">
-        <v>22.17435427923052</v>
+        <v>16.77338348012321</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.87239736474446</v>
+        <v>24.7705288007264</v>
       </c>
       <c r="C18">
-        <v>10.82706075516009</v>
+        <v>18.60606557287751</v>
       </c>
       <c r="D18">
-        <v>9.858170829934402</v>
+        <v>8.483663279218955</v>
       </c>
       <c r="E18">
-        <v>14.07736114111406</v>
+        <v>12.49848545731745</v>
       </c>
       <c r="F18">
-        <v>30.25721150532634</v>
+        <v>25.58032612680288</v>
       </c>
       <c r="I18">
-        <v>19.39762375882535</v>
+        <v>11.61222461908557</v>
       </c>
       <c r="J18">
-        <v>9.796990416609434</v>
+        <v>6.74482089125288</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.4687113099656</v>
+        <v>11.30209579659703</v>
       </c>
       <c r="O18">
-        <v>22.17616304516274</v>
+        <v>16.66803043334676</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82638385594302</v>
+        <v>24.66430801748225</v>
       </c>
       <c r="C19">
-        <v>10.78781283687892</v>
+        <v>18.52667317394375</v>
       </c>
       <c r="D19">
-        <v>9.853432743171412</v>
+        <v>8.456625819706263</v>
       </c>
       <c r="E19">
-        <v>14.07083620188035</v>
+        <v>12.45777968194765</v>
       </c>
       <c r="F19">
-        <v>30.25145996519026</v>
+        <v>25.50713001746055</v>
       </c>
       <c r="I19">
-        <v>19.40482736995206</v>
+        <v>11.61542142439645</v>
       </c>
       <c r="J19">
-        <v>9.796757510904225</v>
+        <v>6.732461495206646</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.47154051335059</v>
+        <v>11.30908615296404</v>
       </c>
       <c r="O19">
-        <v>22.17688004035985</v>
+        <v>16.63259095385093</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.03246013238665</v>
+        <v>25.13903813015944</v>
       </c>
       <c r="C20">
-        <v>10.96332089404359</v>
+        <v>18.88154118463671</v>
       </c>
       <c r="D20">
-        <v>9.874836951209968</v>
+        <v>8.577882017595513</v>
       </c>
       <c r="E20">
-        <v>14.10036431692911</v>
+        <v>12.64048027555613</v>
       </c>
       <c r="F20">
-        <v>30.27792345541422</v>
+        <v>25.83692784293494</v>
       </c>
       <c r="I20">
-        <v>19.37273390359699</v>
+        <v>11.60240244579439</v>
       </c>
       <c r="J20">
-        <v>9.797914870988432</v>
+        <v>6.788224859505293</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.4589278823909</v>
+        <v>11.2779263630701</v>
       </c>
       <c r="O20">
-        <v>22.17406920429871</v>
+        <v>16.79299163466876</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70704882982735</v>
+        <v>26.67710304294232</v>
       </c>
       <c r="C21">
-        <v>11.53334236010013</v>
+        <v>20.03200738332413</v>
       </c>
       <c r="D21">
-        <v>9.948148800849866</v>
+        <v>8.977803415020052</v>
       </c>
       <c r="E21">
-        <v>14.20240206964603</v>
+        <v>13.24562241680372</v>
       </c>
       <c r="F21">
-        <v>30.37695756497428</v>
+        <v>26.9515269871199</v>
       </c>
       <c r="I21">
-        <v>19.27058199476659</v>
+        <v>11.58366271341976</v>
       </c>
       <c r="J21">
-        <v>9.80371150649729</v>
+        <v>6.978043465676651</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.41863325390798</v>
+        <v>11.17857908795093</v>
       </c>
       <c r="O21">
-        <v>22.17190676523563</v>
+        <v>17.3479004890928</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13412968299707</v>
+        <v>27.640301817314</v>
       </c>
       <c r="C22">
-        <v>11.89101370767598</v>
+        <v>20.75306341308159</v>
       </c>
       <c r="D22">
-        <v>9.997049832952587</v>
+        <v>9.233371956196915</v>
       </c>
       <c r="E22">
-        <v>14.27111872608301</v>
+        <v>13.63430890273352</v>
       </c>
       <c r="F22">
-        <v>30.44916379081078</v>
+        <v>27.68420149521204</v>
       </c>
       <c r="I22">
-        <v>19.20806980471752</v>
+        <v>11.59136424021092</v>
       </c>
       <c r="J22">
-        <v>9.808916807395216</v>
+        <v>7.103856651074669</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.39384761975925</v>
+        <v>11.11780961886088</v>
       </c>
       <c r="O22">
-        <v>22.17592601907446</v>
+        <v>17.72236726533872</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.90748343254122</v>
+        <v>27.1300400198226</v>
       </c>
       <c r="C23">
-        <v>11.70149088636069</v>
+        <v>20.37102123885422</v>
       </c>
       <c r="D23">
-        <v>9.970863548017119</v>
+        <v>9.097513997832033</v>
       </c>
       <c r="E23">
-        <v>14.23426280502714</v>
+        <v>13.42750027007148</v>
       </c>
       <c r="F23">
-        <v>30.40994563191641</v>
+        <v>27.29280957807839</v>
       </c>
       <c r="I23">
-        <v>19.2410436802453</v>
+        <v>11.58534384596127</v>
       </c>
       <c r="J23">
-        <v>9.806009357464825</v>
+        <v>7.03655174707604</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.40693458666689</v>
+        <v>11.14985100197588</v>
       </c>
       <c r="O23">
-        <v>22.17328356610405</v>
+        <v>17.52143391275117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.02120890112276</v>
+        <v>25.11318361227281</v>
       </c>
       <c r="C24">
-        <v>10.95375618206871</v>
+        <v>18.86221178891775</v>
       </c>
       <c r="D24">
-        <v>9.873656145821265</v>
+        <v>8.571250708113899</v>
       </c>
       <c r="E24">
-        <v>14.09873194234455</v>
+        <v>12.63047905326104</v>
       </c>
       <c r="F24">
-        <v>30.27643199067555</v>
+        <v>25.81879054727389</v>
       </c>
       <c r="I24">
-        <v>19.37447500978001</v>
+        <v>11.60302666139394</v>
       </c>
       <c r="J24">
-        <v>9.797844123719145</v>
+        <v>6.785153125115411</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.45961266828393</v>
+        <v>11.27961782744663</v>
       </c>
       <c r="O24">
-        <v>22.17419618745639</v>
+        <v>16.78412275587925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.00963879198643</v>
+        <v>22.75447978916973</v>
       </c>
       <c r="C25">
-        <v>10.08489064325116</v>
+        <v>17.100120867652</v>
       </c>
       <c r="D25">
-        <v>9.7733842007842</v>
+        <v>7.980282656518865</v>
       </c>
       <c r="E25">
-        <v>13.9617494639214</v>
+        <v>11.7438317067209</v>
       </c>
       <c r="F25">
-        <v>30.16490827828015</v>
+        <v>24.25145526923001</v>
       </c>
       <c r="I25">
-        <v>19.53653142203353</v>
+        <v>11.6992660846315</v>
       </c>
       <c r="J25">
-        <v>9.79515171468436</v>
+        <v>6.522054650922351</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.52310291909213</v>
+        <v>11.43635051651873</v>
       </c>
       <c r="O25">
-        <v>22.19845889362142</v>
+        <v>16.04022470089579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85698743277286</v>
+        <v>11.82245895890407</v>
       </c>
       <c r="C2">
-        <v>15.68449929104091</v>
+        <v>8.085032526701578</v>
       </c>
       <c r="D2">
-        <v>7.527369038226492</v>
+        <v>5.102503654002458</v>
       </c>
       <c r="E2">
-        <v>11.07116105781766</v>
+        <v>15.90266595248199</v>
       </c>
       <c r="F2">
-        <v>23.12286061441468</v>
+        <v>18.90711180041966</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.719781557611864</v>
       </c>
       <c r="I2">
-        <v>11.82731167447597</v>
+        <v>2.518861564933353</v>
       </c>
       <c r="J2">
-        <v>6.335912566158361</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.31745978588635</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.06923005217148</v>
       </c>
       <c r="N2">
-        <v>11.56510258309544</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.53734497657894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.34965490988897</v>
+      </c>
+      <c r="P2">
+        <v>12.56676964939173</v>
+      </c>
+      <c r="Q2">
+        <v>15.4213918128739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.46921292956109</v>
+        <v>11.07882138984386</v>
       </c>
       <c r="C3">
-        <v>14.65027907247083</v>
+        <v>7.672332318759012</v>
       </c>
       <c r="D3">
-        <v>7.210875851483474</v>
+        <v>4.922181423327034</v>
       </c>
       <c r="E3">
-        <v>10.60522368423558</v>
+        <v>15.02204959242631</v>
       </c>
       <c r="F3">
-        <v>22.3775393649489</v>
+        <v>18.50996407849829</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.594086440255543</v>
       </c>
       <c r="I3">
-        <v>11.94533176064554</v>
+        <v>2.561002546094076</v>
       </c>
       <c r="J3">
-        <v>6.214840119291417</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.33226914466747</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.46541539036406</v>
       </c>
       <c r="N3">
-        <v>11.6602238021399</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.22469709662005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.56065763086484</v>
+      </c>
+      <c r="P3">
+        <v>12.70201307271495</v>
+      </c>
+      <c r="Q3">
+        <v>15.30190549046361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56641247881083</v>
+        <v>10.59322694495265</v>
       </c>
       <c r="C4">
-        <v>13.97802263946132</v>
+        <v>7.409987266569217</v>
       </c>
       <c r="D4">
-        <v>7.012487560697147</v>
+        <v>4.807488432243067</v>
       </c>
       <c r="E4">
-        <v>10.31514701119666</v>
+        <v>14.45374650725063</v>
       </c>
       <c r="F4">
-        <v>21.93091289059346</v>
+        <v>18.26935560214599</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.719376502162585</v>
       </c>
       <c r="I4">
-        <v>12.03180979197455</v>
+        <v>2.6493122800249</v>
       </c>
       <c r="J4">
-        <v>6.143125244762286</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.34466830624</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.07542673609086</v>
       </c>
       <c r="N4">
-        <v>11.72237194989397</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.04660007848157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.05250089804119</v>
+      </c>
+      <c r="P4">
+        <v>12.7864390284156</v>
+      </c>
+      <c r="Q4">
+        <v>15.23321622647648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18569939393605</v>
+        <v>10.38302901900842</v>
       </c>
       <c r="C5">
-        <v>13.69466608630118</v>
+        <v>7.308212520114407</v>
       </c>
       <c r="D5">
-        <v>6.930735252703532</v>
+        <v>4.760972686582491</v>
       </c>
       <c r="E5">
-        <v>10.19610481559493</v>
+        <v>14.21511278414474</v>
       </c>
       <c r="F5">
-        <v>21.7518913774643</v>
+        <v>18.16562771703893</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.771742751853149</v>
       </c>
       <c r="I5">
-        <v>12.0703751825232</v>
+        <v>2.689434293640148</v>
       </c>
       <c r="J5">
-        <v>6.114578519696845</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.3456400956975</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.911512396753407</v>
       </c>
       <c r="N5">
-        <v>11.74862045663467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.97749869349244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.83945837167056</v>
+      </c>
+      <c r="P5">
+        <v>12.8206497018364</v>
+      </c>
+      <c r="Q5">
+        <v>15.20157604351169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12170646147639</v>
+        <v>10.34154073189971</v>
       </c>
       <c r="C6">
-        <v>13.64704567937262</v>
+        <v>7.300164972402319</v>
       </c>
       <c r="D6">
-        <v>6.917109130764961</v>
+        <v>4.75465002302826</v>
       </c>
       <c r="E6">
-        <v>10.17629295090472</v>
+        <v>14.17483402868162</v>
       </c>
       <c r="F6">
-        <v>21.7223514316072</v>
+        <v>18.14039427248262</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.780699579869498</v>
       </c>
       <c r="I6">
-        <v>12.07697411756201</v>
+        <v>2.70015566075207</v>
       </c>
       <c r="J6">
-        <v>6.109879782702512</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.33987251165382</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.883737828836505</v>
       </c>
       <c r="N6">
-        <v>11.75303421092342</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.96623366561021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.80357774729947</v>
+      </c>
+      <c r="P6">
+        <v>12.82568147285534</v>
+      </c>
+      <c r="Q6">
+        <v>15.19050566899654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.56133001914501</v>
+        <v>10.57401545049245</v>
       </c>
       <c r="C7">
-        <v>13.97423933313016</v>
+        <v>7.432733912827802</v>
       </c>
       <c r="D7">
-        <v>7.011388534356431</v>
+        <v>4.810817157330294</v>
       </c>
       <c r="E7">
-        <v>10.31354470285239</v>
+        <v>14.44991334112505</v>
       </c>
       <c r="F7">
-        <v>21.92848618262544</v>
+        <v>18.24607864676727</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.720592043350479</v>
       </c>
       <c r="I7">
-        <v>12.03231669187089</v>
+        <v>2.660432918646129</v>
       </c>
       <c r="J7">
-        <v>6.142737487158908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.32836989149764</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.07251038913389</v>
       </c>
       <c r="N7">
-        <v>11.7227222341951</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.04565411186162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.04923182858194</v>
+      </c>
+      <c r="P7">
+        <v>12.78511424091385</v>
+      </c>
+      <c r="Q7">
+        <v>15.21676401227021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.38896543222029</v>
+        <v>11.55195076370067</v>
       </c>
       <c r="C8">
-        <v>15.33560266755387</v>
+        <v>7.974706103328515</v>
       </c>
       <c r="D8">
-        <v>7.419148570403131</v>
+        <v>5.046250191129252</v>
       </c>
       <c r="E8">
-        <v>10.91142920116749</v>
+        <v>15.60405141883332</v>
       </c>
       <c r="F8">
-        <v>22.86371819296421</v>
+        <v>18.74140375570705</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.653886293187616</v>
       </c>
       <c r="I8">
-        <v>11.86497409766359</v>
+        <v>2.483966518092847</v>
       </c>
       <c r="J8">
-        <v>6.293633157836259</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.30039323129577</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.8641715938737</v>
       </c>
       <c r="N8">
-        <v>11.59711172435877</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.42666132111414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.08207883049264</v>
+      </c>
+      <c r="P8">
+        <v>12.61096730738257</v>
+      </c>
+      <c r="Q8">
+        <v>15.35830336873933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57378026835566</v>
+        <v>13.26610762715538</v>
       </c>
       <c r="C9">
-        <v>17.71188961211861</v>
+        <v>8.925277289906704</v>
       </c>
       <c r="D9">
-        <v>8.182289158073814</v>
+        <v>5.468438405207187</v>
       </c>
       <c r="E9">
-        <v>12.04584196253202</v>
+        <v>17.64624771500058</v>
       </c>
       <c r="F9">
-        <v>24.77591120062175</v>
+        <v>19.7717563885799</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.109522159137704</v>
       </c>
       <c r="I9">
-        <v>11.65735925464232</v>
+        <v>2.793053124475538</v>
       </c>
       <c r="J9">
-        <v>6.609548231559197</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.30179220430798</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.26282341721931</v>
       </c>
       <c r="N9">
-        <v>11.38141448195688</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.28387996611329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.91583600557487</v>
+      </c>
+      <c r="P9">
+        <v>12.28280509246465</v>
+      </c>
+      <c r="Q9">
+        <v>15.70159555407301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67486689053057</v>
+        <v>14.38341301374871</v>
       </c>
       <c r="C10">
-        <v>19.2822099336365</v>
+        <v>9.57151651547267</v>
       </c>
       <c r="D10">
-        <v>8.716010281155526</v>
+        <v>5.778003083749766</v>
       </c>
       <c r="E10">
-        <v>12.84905133560648</v>
+        <v>18.4682948304602</v>
       </c>
       <c r="F10">
-        <v>26.21732877265548</v>
+        <v>20.42810888959211</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.403062898463286</v>
       </c>
       <c r="I10">
-        <v>11.59171661019819</v>
+        <v>3.012008792624702</v>
       </c>
       <c r="J10">
-        <v>6.852779844431519</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.25959159612547</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.18994532094526</v>
       </c>
       <c r="N10">
-        <v>11.2430228416471</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.98023274845796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.86367946353733</v>
+      </c>
+      <c r="P10">
+        <v>12.04251031078716</v>
+      </c>
+      <c r="Q10">
+        <v>15.89472548486042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57989673633078</v>
+        <v>14.87567824653102</v>
       </c>
       <c r="C11">
-        <v>19.95926362380279</v>
+        <v>9.747378459934918</v>
       </c>
       <c r="D11">
-        <v>8.95222304861182</v>
+        <v>6.084708335655467</v>
       </c>
       <c r="E11">
-        <v>13.20680099597992</v>
+        <v>14.2956035810878</v>
       </c>
       <c r="F11">
-        <v>26.87904447255065</v>
+        <v>19.84751406913299</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.107930514816988</v>
       </c>
       <c r="I11">
-        <v>11.58374164757982</v>
+        <v>3.080221098280612</v>
       </c>
       <c r="J11">
-        <v>6.965639626284234</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.75914900804408</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.56028817401293</v>
       </c>
       <c r="N11">
-        <v>11.18477798481368</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.31125315213819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.89821807855687</v>
+      </c>
+      <c r="P11">
+        <v>11.91136893850525</v>
+      </c>
+      <c r="Q11">
+        <v>15.31347575974204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.9153963821074</v>
+        <v>15.08573657162583</v>
       </c>
       <c r="C12">
-        <v>20.2103523696413</v>
+        <v>9.735218297609819</v>
       </c>
       <c r="D12">
-        <v>9.040678548339217</v>
+        <v>6.278425110573662</v>
       </c>
       <c r="E12">
-        <v>13.34110810840485</v>
+        <v>10.81538530706942</v>
       </c>
       <c r="F12">
-        <v>27.13035275103671</v>
+        <v>19.2344547131576</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.275848396118309</v>
       </c>
       <c r="I12">
-        <v>11.58412377541722</v>
+        <v>3.091622618687668</v>
       </c>
       <c r="J12">
-        <v>7.008679348533561</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.36919220108412</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.68635125357483</v>
       </c>
       <c r="N12">
-        <v>11.16343254018957</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.43862943135248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.03741901209311</v>
+      </c>
+      <c r="P12">
+        <v>11.87043716144376</v>
+      </c>
+      <c r="Q12">
+        <v>14.79613869398336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84346005675526</v>
+        <v>15.07928166809979</v>
       </c>
       <c r="C13">
-        <v>20.15651039761761</v>
+        <v>9.607408760517901</v>
       </c>
       <c r="D13">
-        <v>9.021672878913504</v>
+        <v>6.405289689043636</v>
       </c>
       <c r="E13">
-        <v>13.31223535991945</v>
+        <v>7.880619732288653</v>
       </c>
       <c r="F13">
-        <v>27.07619831841553</v>
+        <v>18.51659148369881</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.556684678720839</v>
       </c>
       <c r="I13">
-        <v>11.5838860905179</v>
+        <v>3.064379995781302</v>
       </c>
       <c r="J13">
-        <v>6.999396762989653</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.01602725532419</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.63508395181789</v>
       </c>
       <c r="N13">
-        <v>11.16799749557229</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.41110688588353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.09799793616661</v>
+      </c>
+      <c r="P13">
+        <v>11.89094317527183</v>
+      </c>
+      <c r="Q13">
+        <v>14.26927569601997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60764260649691</v>
+        <v>14.97322283666892</v>
       </c>
       <c r="C14">
-        <v>19.9800266092674</v>
+        <v>9.470494172926557</v>
       </c>
       <c r="D14">
-        <v>8.959520471078248</v>
+        <v>6.466151731733107</v>
       </c>
       <c r="E14">
-        <v>13.21787419133213</v>
+        <v>6.553023893646301</v>
       </c>
       <c r="F14">
-        <v>26.89970576639772</v>
+        <v>17.95655720607374</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.489431824259428</v>
       </c>
       <c r="I14">
-        <v>11.58370343579418</v>
+        <v>3.029219038390125</v>
       </c>
       <c r="J14">
-        <v>6.969174556908523</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.78385358009574</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.51841672242555</v>
       </c>
       <c r="N14">
-        <v>11.18300743871052</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.32169198834512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.692335569916789</v>
+      </c>
+      <c r="P14">
+        <v>11.93375144546052</v>
+      </c>
+      <c r="Q14">
+        <v>13.89259715801261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.46226050714173</v>
+        <v>14.89540800356515</v>
       </c>
       <c r="C15">
-        <v>19.87123742137599</v>
+        <v>9.419301502578776</v>
       </c>
       <c r="D15">
-        <v>8.92131977799778</v>
+        <v>6.4678958243088</v>
       </c>
       <c r="E15">
-        <v>13.15992185404993</v>
+        <v>6.385524924081492</v>
       </c>
       <c r="F15">
-        <v>26.79169071233367</v>
+        <v>17.79164749902398</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.702749402712517</v>
       </c>
       <c r="I15">
-        <v>11.58404220548185</v>
+        <v>3.013344423047499</v>
       </c>
       <c r="J15">
-        <v>6.950701502202078</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.73068951294599</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.45119632356601</v>
       </c>
       <c r="N15">
-        <v>11.19229504643472</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.26718601439564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.33019551545682</v>
+      </c>
+      <c r="P15">
+        <v>11.95489651330274</v>
+      </c>
+      <c r="Q15">
+        <v>13.79509328646291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.6147066709436</v>
+        <v>14.43420244980969</v>
       </c>
       <c r="C16">
-        <v>19.23721799037066</v>
+        <v>9.183340260903218</v>
       </c>
       <c r="D16">
-        <v>8.700436556124576</v>
+        <v>6.321279727754433</v>
       </c>
       <c r="E16">
-        <v>12.82551178843069</v>
+        <v>6.381567050729535</v>
       </c>
       <c r="F16">
-        <v>26.17419296659415</v>
+        <v>17.61569951152814</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.439872329522098</v>
       </c>
       <c r="I16">
-        <v>11.59269992927455</v>
+        <v>2.92826183980534</v>
       </c>
       <c r="J16">
-        <v>6.845447293152445</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.81162744776877</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.07851831962214</v>
       </c>
       <c r="N16">
-        <v>11.2469268385272</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.95888446883868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.192836953806699</v>
+      </c>
+      <c r="P16">
+        <v>12.04360525160116</v>
+      </c>
+      <c r="Q16">
+        <v>13.80218661833433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.08181659563378</v>
+        <v>14.13053504642586</v>
       </c>
       <c r="C17">
-        <v>18.83876155593233</v>
+        <v>9.075796300783088</v>
       </c>
       <c r="D17">
-        <v>8.563209733774983</v>
+        <v>6.173500564475279</v>
       </c>
       <c r="E17">
-        <v>12.61835328097185</v>
+        <v>6.901769184193352</v>
       </c>
       <c r="F17">
-        <v>25.79681324369506</v>
+        <v>17.78663501065524</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.694308902252257</v>
       </c>
       <c r="I17">
-        <v>11.60379721154325</v>
+        <v>2.881516767313757</v>
       </c>
       <c r="J17">
-        <v>6.781431818603341</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.99576439505064</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.85141376040872</v>
       </c>
       <c r="N17">
-        <v>11.28167080946508</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.77338348012321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.86039399204936</v>
+      </c>
+      <c r="P17">
+        <v>12.08984206234467</v>
+      </c>
+      <c r="Q17">
+        <v>14.00945927474999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.7705288007264</v>
+        <v>13.94677810774549</v>
       </c>
       <c r="C18">
-        <v>18.60606557287751</v>
+        <v>9.05370281694757</v>
       </c>
       <c r="D18">
-        <v>8.483663279218955</v>
+        <v>6.007180645287944</v>
       </c>
       <c r="E18">
-        <v>12.49848545731745</v>
+        <v>8.825243105330092</v>
       </c>
       <c r="F18">
-        <v>25.58032612680288</v>
+        <v>18.28608434939031</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.489258876542837</v>
       </c>
       <c r="I18">
-        <v>11.61222461908557</v>
+        <v>2.860753802297153</v>
       </c>
       <c r="J18">
-        <v>6.74482089125288</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.30296298240618</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.73009447608286</v>
       </c>
       <c r="N18">
-        <v>11.30209579659703</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.66803043334676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.32356916317375</v>
+      </c>
+      <c r="P18">
+        <v>12.11234272176316</v>
+      </c>
+      <c r="Q18">
+        <v>14.42196728812195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66430801748225</v>
+        <v>13.85230672859191</v>
       </c>
       <c r="C19">
-        <v>18.52667317394375</v>
+        <v>9.14261328142174</v>
       </c>
       <c r="D19">
-        <v>8.456625819706263</v>
+        <v>5.84905051891713</v>
       </c>
       <c r="E19">
-        <v>12.45777968194765</v>
+        <v>12.23630674973846</v>
       </c>
       <c r="F19">
-        <v>25.50713001746055</v>
+        <v>18.9686129989565</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.165437083319951</v>
       </c>
       <c r="I19">
-        <v>11.61542142439645</v>
+        <v>2.873768409532747</v>
       </c>
       <c r="J19">
-        <v>6.732461495206646</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.66572685413629</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.70474089812325</v>
       </c>
       <c r="N19">
-        <v>11.30908615296404</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.63259095385093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.32055687807083</v>
+      </c>
+      <c r="P19">
+        <v>12.12525678416115</v>
+      </c>
+      <c r="Q19">
+        <v>14.94269453640772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13903813015944</v>
+        <v>14.05970142954369</v>
       </c>
       <c r="C20">
-        <v>18.88154118463671</v>
+        <v>9.46581882049724</v>
       </c>
       <c r="D20">
-        <v>8.577882017595513</v>
+        <v>5.710196156599691</v>
       </c>
       <c r="E20">
-        <v>12.64048027555613</v>
+        <v>18.23106019139657</v>
       </c>
       <c r="F20">
-        <v>25.83692784293494</v>
+        <v>20.18964165149804</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.323639768213281</v>
       </c>
       <c r="I20">
-        <v>11.60240244579439</v>
+        <v>2.965015710834779</v>
       </c>
       <c r="J20">
-        <v>6.788224859505293</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.21745700242207</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.95110296169125</v>
       </c>
       <c r="N20">
-        <v>11.2779263630701</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.79299163466876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.60702422419255</v>
+      </c>
+      <c r="P20">
+        <v>12.10106963796867</v>
+      </c>
+      <c r="Q20">
+        <v>15.79188595354909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67710304294232</v>
+        <v>14.87809789877043</v>
       </c>
       <c r="C21">
-        <v>20.03200738332413</v>
+        <v>9.956433264386694</v>
       </c>
       <c r="D21">
-        <v>8.977803415020052</v>
+        <v>5.908680135642379</v>
       </c>
       <c r="E21">
-        <v>13.24562241680372</v>
+        <v>19.66012311980696</v>
       </c>
       <c r="F21">
-        <v>26.9515269871199</v>
+        <v>20.86105317062265</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.576963489132511</v>
       </c>
       <c r="I21">
-        <v>11.58366271341976</v>
+        <v>3.134145123814874</v>
       </c>
       <c r="J21">
-        <v>6.978043465676651</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.28476055483562</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.63766587875149</v>
       </c>
       <c r="N21">
-        <v>11.17857908795093</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.3479004890928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.72861245162192</v>
+      </c>
+      <c r="P21">
+        <v>11.92607229281991</v>
+      </c>
+      <c r="Q21">
+        <v>16.07468329331614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.640301817314</v>
+        <v>15.40496059544868</v>
       </c>
       <c r="C22">
-        <v>20.75306341308159</v>
+        <v>10.23657781372806</v>
       </c>
       <c r="D22">
-        <v>9.233371956196915</v>
+        <v>6.039633142614234</v>
       </c>
       <c r="E22">
-        <v>13.63430890273352</v>
+        <v>20.28970517169399</v>
       </c>
       <c r="F22">
-        <v>27.68420149521204</v>
+        <v>21.27338495416441</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.728032851302005</v>
       </c>
       <c r="I22">
-        <v>11.59136424021092</v>
+        <v>3.236943704616488</v>
       </c>
       <c r="J22">
-        <v>7.103856651074669</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.32578520502147</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.06739906554155</v>
       </c>
       <c r="N22">
-        <v>11.11780961886088</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.72236726533872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.29560372925143</v>
+      </c>
+      <c r="P22">
+        <v>11.81182774368107</v>
+      </c>
+      <c r="Q22">
+        <v>16.24457849766568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1300400198226</v>
+        <v>15.14023196773772</v>
       </c>
       <c r="C23">
-        <v>20.37102123885422</v>
+        <v>10.06571104461948</v>
       </c>
       <c r="D23">
-        <v>9.097513997832033</v>
+        <v>5.966089074549424</v>
       </c>
       <c r="E23">
-        <v>13.42750027007148</v>
+        <v>19.95649329462608</v>
       </c>
       <c r="F23">
-        <v>27.29280957807839</v>
+        <v>21.07571512852749</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.648177710591445</v>
       </c>
       <c r="I23">
-        <v>11.58534384596127</v>
+        <v>3.1784756069758</v>
       </c>
       <c r="J23">
-        <v>7.03655174707604</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.32222793282316</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.84032337434825</v>
       </c>
       <c r="N23">
-        <v>11.14985100197588</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.52143391275117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.99545233919468</v>
+      </c>
+      <c r="P23">
+        <v>11.87413194538204</v>
+      </c>
+      <c r="Q23">
+        <v>16.17101214594252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.11318361227281</v>
+        <v>14.06598621764222</v>
       </c>
       <c r="C24">
-        <v>18.86221178891775</v>
+        <v>9.435010557907118</v>
       </c>
       <c r="D24">
-        <v>8.571250708113899</v>
+        <v>5.685379257813993</v>
       </c>
       <c r="E24">
-        <v>12.63047905326104</v>
+        <v>18.64270161912842</v>
       </c>
       <c r="F24">
-        <v>25.81879054727389</v>
+        <v>20.29247899304663</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.33827296448868</v>
       </c>
       <c r="I24">
-        <v>11.60302666139394</v>
+        <v>2.958999593091138</v>
       </c>
       <c r="J24">
-        <v>6.785153125115411</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.28752664192238</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.94350887345389</v>
       </c>
       <c r="N24">
-        <v>11.27961782744663</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.78412275587925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.8124859213906</v>
+      </c>
+      <c r="P24">
+        <v>12.10963533001322</v>
+      </c>
+      <c r="Q24">
+        <v>15.87434419781586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75447978916973</v>
+        <v>12.80202109513213</v>
       </c>
       <c r="C25">
-        <v>17.100120867652</v>
+        <v>8.714112288912562</v>
       </c>
       <c r="D25">
-        <v>7.980282656518865</v>
+        <v>5.364520664200004</v>
       </c>
       <c r="E25">
-        <v>11.7438317067209</v>
+        <v>17.11700272723594</v>
       </c>
       <c r="F25">
-        <v>24.25145526923001</v>
+        <v>19.45446737699555</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.989060696902544</v>
       </c>
       <c r="I25">
-        <v>11.6992660846315</v>
+        <v>2.714667173403756</v>
       </c>
       <c r="J25">
-        <v>6.522054650922351</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.26926157584933</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.90018454378861</v>
       </c>
       <c r="N25">
-        <v>11.43635051651873</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.04022470089579</v>
+        <v>15.44019376422722</v>
+      </c>
+      <c r="P25">
+        <v>12.36793834264403</v>
+      </c>
+      <c r="Q25">
+        <v>15.57668612367142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.82245895890407</v>
+        <v>11.62486184223592</v>
       </c>
       <c r="C2">
-        <v>8.085032526701578</v>
+        <v>8.342871744503912</v>
       </c>
       <c r="D2">
-        <v>5.102503654002458</v>
+        <v>5.139358176937777</v>
       </c>
       <c r="E2">
-        <v>15.90266595248199</v>
+        <v>15.95220021061894</v>
       </c>
       <c r="F2">
-        <v>18.90711180041966</v>
+        <v>18.39008642190888</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.719781557611864</v>
+        <v>1.74932957179432</v>
       </c>
       <c r="I2">
-        <v>2.518861564933353</v>
+        <v>2.604063888342397</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.31745978588635</v>
+        <v>13.80087902826496</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.97209914930605</v>
       </c>
       <c r="M2">
-        <v>11.06923005217148</v>
+        <v>8.471162213189071</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.34965490988897</v>
+        <v>11.08639158004298</v>
       </c>
       <c r="P2">
-        <v>12.56676964939173</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.4213918128739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.35993729211458</v>
+      </c>
+      <c r="R2">
+        <v>12.45033077467695</v>
+      </c>
+      <c r="S2">
+        <v>14.99360721400975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07882138984386</v>
+        <v>10.93473140834054</v>
       </c>
       <c r="C3">
-        <v>7.672332318759012</v>
+        <v>7.8369629241726</v>
       </c>
       <c r="D3">
-        <v>4.922181423327034</v>
+        <v>4.941243805029651</v>
       </c>
       <c r="E3">
-        <v>15.02204959242631</v>
+        <v>15.0806545838098</v>
       </c>
       <c r="F3">
-        <v>18.50996407849829</v>
+        <v>18.04566807065803</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.594086440255543</v>
+        <v>1.562235194697559</v>
       </c>
       <c r="I3">
-        <v>2.561002546094076</v>
+        <v>2.483980152573652</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>14.33226914466747</v>
+        <v>13.84997047426783</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.10600042149406</v>
       </c>
       <c r="M3">
-        <v>10.46541539036406</v>
+        <v>8.423759991222154</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.56065763086484</v>
+        <v>10.48771807664731</v>
       </c>
       <c r="P3">
-        <v>12.70201307271495</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.30190549046361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.57374425304545</v>
+      </c>
+      <c r="R3">
+        <v>12.58066899042171</v>
+      </c>
+      <c r="S3">
+        <v>14.91282359654901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.59322694495265</v>
+        <v>10.48423502617637</v>
       </c>
       <c r="C4">
-        <v>7.409987266569217</v>
+        <v>7.514136481385525</v>
       </c>
       <c r="D4">
-        <v>4.807488432243067</v>
+        <v>4.815243004886709</v>
       </c>
       <c r="E4">
-        <v>14.45374650725063</v>
+        <v>14.51854280301971</v>
       </c>
       <c r="F4">
-        <v>18.26935560214599</v>
+        <v>17.83705555396332</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.719376502162585</v>
+        <v>1.681012773341748</v>
       </c>
       <c r="I4">
-        <v>2.6493122800249</v>
+        <v>2.543563781966859</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.34466830624</v>
+        <v>13.88237922675159</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.18961997163642</v>
       </c>
       <c r="M4">
-        <v>10.07542673609086</v>
+        <v>8.413919346095366</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.05250089804119</v>
+        <v>10.10111283289534</v>
       </c>
       <c r="P4">
-        <v>12.7864390284156</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.23321622647648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.06741446556392</v>
+      </c>
+      <c r="R4">
+        <v>12.66223487526401</v>
+      </c>
+      <c r="S4">
+        <v>14.86720645617195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38302901900842</v>
+        <v>10.28900191093225</v>
       </c>
       <c r="C5">
-        <v>7.308212520114407</v>
+        <v>7.387390050974924</v>
       </c>
       <c r="D5">
-        <v>4.760972686582491</v>
+        <v>4.764067633287492</v>
       </c>
       <c r="E5">
-        <v>14.21511278414474</v>
+        <v>14.282600196375</v>
       </c>
       <c r="F5">
-        <v>18.16562771703893</v>
+        <v>17.74628308310127</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.771742751853149</v>
+        <v>1.732078631999418</v>
       </c>
       <c r="I5">
-        <v>2.689434293640148</v>
+        <v>2.58067289001912</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.3456400956975</v>
+        <v>13.89140783187343</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.21967640565685</v>
       </c>
       <c r="M5">
-        <v>9.911512396753407</v>
+        <v>8.412061241610443</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.83945837167056</v>
+        <v>9.938640801513705</v>
       </c>
       <c r="P5">
-        <v>12.8206497018364</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.20157604351169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.85514722361869</v>
+      </c>
+      <c r="R5">
+        <v>12.6954045569263</v>
+      </c>
+      <c r="S5">
+        <v>14.84485196362612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.34154073189971</v>
+        <v>10.25013922941266</v>
       </c>
       <c r="C6">
-        <v>7.300164972402319</v>
+        <v>7.375730538769555</v>
       </c>
       <c r="D6">
-        <v>4.75465002302826</v>
+        <v>4.757010538012426</v>
       </c>
       <c r="E6">
-        <v>14.17483402868162</v>
+        <v>14.24278148874116</v>
       </c>
       <c r="F6">
-        <v>18.14039427248262</v>
+        <v>17.72325032344179</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.780699579869498</v>
+        <v>1.740814079267316</v>
       </c>
       <c r="I6">
-        <v>2.70015566075207</v>
+        <v>2.591632298671711</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.33987251165382</v>
+        <v>13.88716247146242</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.21935017331552</v>
       </c>
       <c r="M6">
-        <v>9.883737828836505</v>
+        <v>8.408726570009144</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.80357774729947</v>
+        <v>9.911112879770455</v>
       </c>
       <c r="P6">
-        <v>12.82568147285534</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.19050566899654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.81939919710062</v>
+      </c>
+      <c r="R6">
+        <v>12.70037481369225</v>
+      </c>
+      <c r="S6">
+        <v>14.83539748769669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57401545049245</v>
+        <v>10.46549669287529</v>
       </c>
       <c r="C7">
-        <v>7.432733912827802</v>
+        <v>7.538088056688378</v>
       </c>
       <c r="D7">
-        <v>4.810817157330294</v>
+        <v>4.818629780951713</v>
       </c>
       <c r="E7">
-        <v>14.44991334112505</v>
+        <v>14.51475403180474</v>
       </c>
       <c r="F7">
-        <v>18.24607864676727</v>
+        <v>17.81412659679187</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.720592043350479</v>
+        <v>1.682199404882184</v>
       </c>
       <c r="I7">
-        <v>2.660432918646129</v>
+        <v>2.556585668352394</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>14.32836989149764</v>
+        <v>13.86677832714863</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.17584047921323</v>
       </c>
       <c r="M7">
-        <v>10.07251038913389</v>
+        <v>8.404357095896685</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.04923182858194</v>
+        <v>10.09822503567346</v>
       </c>
       <c r="P7">
-        <v>12.78511424091385</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.21676401227021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.06416137805515</v>
+      </c>
+      <c r="R7">
+        <v>12.66121188607926</v>
+      </c>
+      <c r="S7">
+        <v>14.85113114621265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.55195076370067</v>
+        <v>11.37265028639045</v>
       </c>
       <c r="C8">
-        <v>7.974706103328515</v>
+        <v>8.202885768492546</v>
       </c>
       <c r="D8">
-        <v>5.046250191129252</v>
+        <v>5.077208003669321</v>
       </c>
       <c r="E8">
-        <v>15.60405141883332</v>
+        <v>15.65660524396758</v>
       </c>
       <c r="F8">
-        <v>18.74140375570705</v>
+        <v>18.24288760395766</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.653886293187616</v>
+        <v>1.685101438410576</v>
       </c>
       <c r="I8">
-        <v>2.483966518092847</v>
+        <v>2.567545135290414</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.30039323129577</v>
+        <v>13.79678946116057</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.00086617115695</v>
       </c>
       <c r="M8">
-        <v>10.8641715938737</v>
+        <v>8.436486906074359</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.08207883049264</v>
+        <v>10.88307419855883</v>
       </c>
       <c r="P8">
-        <v>12.61096730738257</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.35830336873933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.09331602234689</v>
+      </c>
+      <c r="R8">
+        <v>12.49329649394857</v>
+      </c>
+      <c r="S8">
+        <v>14.9443916399585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.26610762715538</v>
+        <v>12.96498185083341</v>
       </c>
       <c r="C9">
-        <v>8.925277289906704</v>
+        <v>9.365836378257386</v>
       </c>
       <c r="D9">
-        <v>5.468438405207187</v>
+        <v>5.541224269582548</v>
       </c>
       <c r="E9">
-        <v>17.64624771500058</v>
+        <v>17.67924891221579</v>
       </c>
       <c r="F9">
-        <v>19.7717563885799</v>
+        <v>19.14077912124616</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.109522159137704</v>
+        <v>2.129080613000217</v>
       </c>
       <c r="I9">
-        <v>2.793053124475538</v>
+        <v>2.852088281322497</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.30179220430798</v>
+        <v>13.70611587116451</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.69102525373351</v>
       </c>
       <c r="M9">
-        <v>12.26282341721931</v>
+        <v>8.670388376304832</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.91583600557487</v>
+        <v>12.26999344561129</v>
       </c>
       <c r="P9">
-        <v>12.28280509246465</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.70159555407301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.92054386483519</v>
+      </c>
+      <c r="R9">
+        <v>12.17798135506449</v>
+      </c>
+      <c r="S9">
+        <v>15.1875249849368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.38341301374871</v>
+        <v>14.00702524229219</v>
       </c>
       <c r="C10">
-        <v>9.57151651547267</v>
+        <v>10.145198804901</v>
       </c>
       <c r="D10">
-        <v>5.778003083749766</v>
+        <v>5.878554575156643</v>
       </c>
       <c r="E10">
-        <v>18.4682948304602</v>
+        <v>18.48976722614904</v>
       </c>
       <c r="F10">
-        <v>20.42810888959211</v>
+        <v>19.70789017994109</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.403062898463286</v>
+        <v>2.414534506193253</v>
       </c>
       <c r="I10">
-        <v>3.012008792624702</v>
+        <v>3.050373897037421</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.25959159612547</v>
+        <v>13.59942933691829</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.43337612624341</v>
       </c>
       <c r="M10">
-        <v>13.18994532094526</v>
+        <v>8.882654722133095</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.86367946353733</v>
+        <v>13.18953833386125</v>
       </c>
       <c r="P10">
-        <v>12.04251031078716</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.89472548486042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.86401526450854</v>
+      </c>
+      <c r="R10">
+        <v>11.95120733281784</v>
+      </c>
+      <c r="S10">
+        <v>15.31138322259198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.87567824653102</v>
+        <v>14.50256902190247</v>
       </c>
       <c r="C11">
-        <v>9.747378459934918</v>
+        <v>10.31822161790288</v>
       </c>
       <c r="D11">
-        <v>6.084708335655467</v>
+        <v>6.191344200006976</v>
       </c>
       <c r="E11">
-        <v>14.2956035810878</v>
+        <v>14.31631300127283</v>
       </c>
       <c r="F11">
-        <v>19.84751406913299</v>
+        <v>19.14823002215207</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.107930514816988</v>
+        <v>3.114931197010221</v>
       </c>
       <c r="I11">
-        <v>3.080221098280612</v>
+        <v>3.114771541745946</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.75914900804408</v>
+        <v>13.13895066985516</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.04646526715931</v>
       </c>
       <c r="M11">
-        <v>13.56028817401293</v>
+        <v>8.624695598639235</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.89821807855687</v>
+        <v>13.55847628269161</v>
       </c>
       <c r="P11">
-        <v>11.91136893850525</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.31347575974204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.8976634483409</v>
+      </c>
+      <c r="R11">
+        <v>11.85140282931214</v>
+      </c>
+      <c r="S11">
+        <v>14.75377069799605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08573657162583</v>
+        <v>14.7305873118551</v>
       </c>
       <c r="C12">
-        <v>9.735218297609819</v>
+        <v>10.27498350569616</v>
       </c>
       <c r="D12">
-        <v>6.278425110573662</v>
+        <v>6.383647191485556</v>
       </c>
       <c r="E12">
-        <v>10.81538530706942</v>
+        <v>10.83865705959412</v>
       </c>
       <c r="F12">
-        <v>19.2344547131576</v>
+        <v>18.57200133821784</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.275848396118309</v>
+        <v>4.280623806717345</v>
       </c>
       <c r="I12">
-        <v>3.091622618687668</v>
+        <v>3.125209640776542</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.36919220108412</v>
+        <v>12.79614968479554</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.79965690181278</v>
       </c>
       <c r="M12">
-        <v>13.68635125357483</v>
+        <v>8.369390103124772</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.03741901209311</v>
+        <v>13.68479629624598</v>
       </c>
       <c r="P12">
-        <v>11.87043716144376</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.79613869398336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.03700379705494</v>
+      </c>
+      <c r="R12">
+        <v>11.83174005760422</v>
+      </c>
+      <c r="S12">
+        <v>14.27138905281028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.07928166809979</v>
+        <v>14.75514640334251</v>
       </c>
       <c r="C13">
-        <v>9.607408760517901</v>
+        <v>10.09312893530656</v>
       </c>
       <c r="D13">
-        <v>6.405289689043636</v>
+        <v>6.50361342791715</v>
       </c>
       <c r="E13">
-        <v>7.880619732288653</v>
+        <v>7.911106779244112</v>
       </c>
       <c r="F13">
-        <v>18.51659148369881</v>
+        <v>17.9065968452771</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.556684678720839</v>
+        <v>5.560642176316448</v>
       </c>
       <c r="I13">
-        <v>3.064379995781302</v>
+        <v>3.100641757945829</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.01602725532419</v>
+        <v>12.49938317597272</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.61946403102076</v>
       </c>
       <c r="M13">
-        <v>13.63508395181789</v>
+        <v>8.083049216421482</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.09799793616661</v>
+        <v>13.63509084359328</v>
       </c>
       <c r="P13">
-        <v>11.89094317527183</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.26927569601997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.09855854542929</v>
+      </c>
+      <c r="R13">
+        <v>11.86679156802599</v>
+      </c>
+      <c r="S13">
+        <v>13.79113134047412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.97322283666892</v>
+        <v>14.67714175467111</v>
       </c>
       <c r="C14">
-        <v>9.470494172926557</v>
+        <v>9.907544327979128</v>
       </c>
       <c r="D14">
-        <v>6.466151731733107</v>
+        <v>6.557114807620568</v>
       </c>
       <c r="E14">
-        <v>6.553023893646301</v>
+        <v>6.590349467222997</v>
       </c>
       <c r="F14">
-        <v>17.95655720607374</v>
+        <v>17.39074131490612</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.489431824259428</v>
+        <v>6.493159093886301</v>
       </c>
       <c r="I14">
-        <v>3.029219038390125</v>
+        <v>3.06928257727354</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.78385358009574</v>
+        <v>12.31042053560443</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.51818293091291</v>
       </c>
       <c r="M14">
-        <v>13.51841672242555</v>
+        <v>7.869669017443805</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.692335569916789</v>
+        <v>13.52010575112755</v>
       </c>
       <c r="P14">
-        <v>11.93375144546052</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.89259715801261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.694026975857707</v>
+      </c>
+      <c r="R14">
+        <v>11.91625988000253</v>
+      </c>
+      <c r="S14">
+        <v>13.45234638166294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.89540800356515</v>
+        <v>14.60911721802896</v>
       </c>
       <c r="C15">
-        <v>9.419301502578776</v>
+        <v>9.839685157111735</v>
       </c>
       <c r="D15">
-        <v>6.4678958243088</v>
+        <v>6.555991575754059</v>
       </c>
       <c r="E15">
-        <v>6.385524924081492</v>
+        <v>6.424951334696568</v>
       </c>
       <c r="F15">
-        <v>17.79164749902398</v>
+        <v>17.23995392473353</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.702749402712517</v>
+        <v>6.706512955079572</v>
       </c>
       <c r="I15">
-        <v>3.013344423047499</v>
+        <v>3.05563342954056</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>12.73068951294599</v>
+        <v>12.26971667076359</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.50191177136229</v>
       </c>
       <c r="M15">
-        <v>13.45119632356601</v>
+        <v>7.809803110441678</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.33019551545682</v>
+        <v>13.45359367398831</v>
       </c>
       <c r="P15">
-        <v>11.95489651330274</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.79509328646291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.332367717192041</v>
+      </c>
+      <c r="R15">
+        <v>11.93784419465992</v>
+      </c>
+      <c r="S15">
+        <v>13.36649572117425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.43420244980969</v>
+        <v>14.17467559889705</v>
       </c>
       <c r="C16">
-        <v>9.183340260903218</v>
+        <v>9.556788060920006</v>
       </c>
       <c r="D16">
-        <v>6.321279727754433</v>
+        <v>6.399426314092283</v>
       </c>
       <c r="E16">
-        <v>6.381567050729535</v>
+        <v>6.430502641801553</v>
       </c>
       <c r="F16">
-        <v>17.61569951152814</v>
+        <v>17.09326462821815</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.439872329522098</v>
+        <v>6.444488589846152</v>
       </c>
       <c r="I16">
-        <v>2.92826183980534</v>
+        <v>2.979379915345137</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.81162744776877</v>
+        <v>12.36531596674011</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.61211812211613</v>
       </c>
       <c r="M16">
-        <v>13.07851831962214</v>
+        <v>7.780255004272223</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.192836953806699</v>
+        <v>13.08378251749511</v>
       </c>
       <c r="P16">
-        <v>12.04360525160116</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.80218661833433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.196777304128224</v>
+      </c>
+      <c r="R16">
+        <v>12.01552887508477</v>
+      </c>
+      <c r="S16">
+        <v>13.39411564019698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.13053504642586</v>
+        <v>13.87633990217989</v>
       </c>
       <c r="C17">
-        <v>9.075796300783088</v>
+        <v>9.439713694127077</v>
       </c>
       <c r="D17">
-        <v>6.173500564475279</v>
+        <v>6.247919385440547</v>
       </c>
       <c r="E17">
-        <v>6.901769184193352</v>
+        <v>6.953952999038925</v>
       </c>
       <c r="F17">
-        <v>17.78663501065524</v>
+        <v>17.26262248482604</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.694308902252257</v>
+        <v>5.699930545522225</v>
       </c>
       <c r="I17">
-        <v>2.881516767313757</v>
+        <v>2.937511643118146</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>12.99576439505064</v>
+        <v>12.53834548316821</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.75674530763229</v>
       </c>
       <c r="M17">
-        <v>12.85141376040872</v>
+        <v>7.868181693349559</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.86039399204936</v>
+        <v>12.85800058146548</v>
       </c>
       <c r="P17">
-        <v>12.08984206234467</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.00945927474999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.865004253470421</v>
+      </c>
+      <c r="R17">
+        <v>12.05047367562145</v>
+      </c>
+      <c r="S17">
+        <v>13.59693774928362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.94677810774549</v>
+        <v>13.6794332204022</v>
       </c>
       <c r="C18">
-        <v>9.05370281694757</v>
+        <v>9.439419010786294</v>
       </c>
       <c r="D18">
-        <v>6.007180645287944</v>
+        <v>6.082610821308648</v>
       </c>
       <c r="E18">
-        <v>8.825243105330092</v>
+        <v>8.871135112565923</v>
       </c>
       <c r="F18">
-        <v>18.28608434939031</v>
+        <v>17.73386267012009</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.489258876542837</v>
+        <v>4.496685386153225</v>
       </c>
       <c r="I18">
-        <v>2.860753802297153</v>
+        <v>2.917405192715058</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.30296298240618</v>
+        <v>12.8106570244546</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.96108014599103</v>
       </c>
       <c r="M18">
-        <v>12.73009447608286</v>
+        <v>8.068469244807751</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.32356916317375</v>
+        <v>12.73673770732815</v>
       </c>
       <c r="P18">
-        <v>12.11234272176316</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.42196728812195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.32801726864101</v>
+      </c>
+      <c r="R18">
+        <v>12.05890607969185</v>
+      </c>
+      <c r="S18">
+        <v>13.98310784219491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.85230672859191</v>
+        <v>13.5583119351647</v>
       </c>
       <c r="C19">
-        <v>9.14261328142174</v>
+        <v>9.575321702909271</v>
       </c>
       <c r="D19">
-        <v>5.84905051891713</v>
+        <v>5.928945761523543</v>
       </c>
       <c r="E19">
-        <v>12.23630674973846</v>
+        <v>12.27260362056832</v>
       </c>
       <c r="F19">
-        <v>18.9686129989565</v>
+        <v>18.36959733724554</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.165437083319951</v>
+        <v>3.176234987702959</v>
       </c>
       <c r="I19">
-        <v>2.873768409532747</v>
+        <v>2.929636587679329</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>13.66572685413629</v>
+        <v>13.12294130382008</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.18550929184221</v>
       </c>
       <c r="M19">
-        <v>12.70474089812325</v>
+        <v>8.323901201949072</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.32055687807083</v>
+        <v>12.71035661289555</v>
       </c>
       <c r="P19">
-        <v>12.12525678416115</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.94269453640772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.32431081918448</v>
+      </c>
+      <c r="R19">
+        <v>12.05568890810093</v>
+      </c>
+      <c r="S19">
+        <v>14.46243999920407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.05970142954369</v>
+        <v>13.70315854095744</v>
       </c>
       <c r="C20">
-        <v>9.46581882049724</v>
+        <v>10.00827725718401</v>
       </c>
       <c r="D20">
-        <v>5.710196156599691</v>
+        <v>5.803904043631146</v>
       </c>
       <c r="E20">
-        <v>18.23106019139657</v>
+        <v>18.25554969998747</v>
       </c>
       <c r="F20">
-        <v>20.18964165149804</v>
+        <v>19.49372345192038</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.323639768213281</v>
+        <v>2.337265430734724</v>
       </c>
       <c r="I20">
-        <v>2.965015710834779</v>
+        <v>3.011952273646067</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.21745700242207</v>
+        <v>13.57767355532685</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.46627759490669</v>
       </c>
       <c r="M20">
-        <v>12.95110296169125</v>
+        <v>8.780138243369066</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.60702422419255</v>
+        <v>12.95268675483352</v>
       </c>
       <c r="P20">
-        <v>12.10106963796867</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.79188595354909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.60852134297451</v>
+      </c>
+      <c r="R20">
+        <v>12.00774888549954</v>
+      </c>
+      <c r="S20">
+        <v>15.22816464488699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.87809789877043</v>
+        <v>14.46024619524701</v>
       </c>
       <c r="C21">
-        <v>9.956433264386694</v>
+        <v>10.60611486876772</v>
       </c>
       <c r="D21">
-        <v>5.908680135642379</v>
+        <v>6.023761417104349</v>
       </c>
       <c r="E21">
-        <v>19.66012311980696</v>
+        <v>19.67559562666793</v>
       </c>
       <c r="F21">
-        <v>20.86105317062265</v>
+        <v>20.08639538454744</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.576963489132511</v>
+        <v>2.584244551355376</v>
       </c>
       <c r="I21">
-        <v>3.134145123814874</v>
+        <v>3.164379226761066</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.28476055483562</v>
+        <v>13.5812658114768</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.32860772561601</v>
       </c>
       <c r="M21">
-        <v>13.63766587875149</v>
+        <v>9.035853422369655</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.72861245162192</v>
+        <v>13.63328357216132</v>
       </c>
       <c r="P21">
-        <v>11.92607229281991</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.07468329331614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.72662360510596</v>
+      </c>
+      <c r="R21">
+        <v>11.83893822046917</v>
+      </c>
+      <c r="S21">
+        <v>15.44740157203215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.40496059544868</v>
+        <v>14.95068390865735</v>
       </c>
       <c r="C22">
-        <v>10.23657781372806</v>
+        <v>10.94862301687989</v>
       </c>
       <c r="D22">
-        <v>6.039633142614234</v>
+        <v>6.167754173410384</v>
       </c>
       <c r="E22">
-        <v>20.28970517169399</v>
+        <v>20.29986451535969</v>
       </c>
       <c r="F22">
-        <v>21.27338495416441</v>
+        <v>20.4512392943243</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.728032851302005</v>
+        <v>2.731259912663287</v>
       </c>
       <c r="I22">
-        <v>3.236943704616488</v>
+        <v>3.255445026723475</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>14.32578520502147</v>
+        <v>13.58248341994183</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.23560055091698</v>
       </c>
       <c r="M22">
-        <v>14.06739906554155</v>
+        <v>9.213791754991862</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.29560372925143</v>
+        <v>14.05931626832569</v>
       </c>
       <c r="P22">
-        <v>11.81182774368107</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.24457849766568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.29140528261447</v>
+      </c>
+      <c r="R22">
+        <v>11.7296852761176</v>
+      </c>
+      <c r="S22">
+        <v>15.57841985431513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.14023196773772</v>
+        <v>14.70506802028232</v>
       </c>
       <c r="C23">
-        <v>10.06571104461948</v>
+        <v>10.74372880459941</v>
       </c>
       <c r="D23">
-        <v>5.966089074549424</v>
+        <v>6.08719281213916</v>
       </c>
       <c r="E23">
-        <v>19.95649329462608</v>
+        <v>19.96943683903919</v>
       </c>
       <c r="F23">
-        <v>21.07571512852749</v>
+        <v>20.27860191009557</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.648177710591445</v>
+        <v>2.653546494548511</v>
       </c>
       <c r="I23">
-        <v>3.1784756069758</v>
+        <v>3.201961251085744</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>14.32222793282316</v>
+        <v>13.59916186415967</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.29658450226025</v>
       </c>
       <c r="M23">
-        <v>13.84032337434825</v>
+        <v>9.133290504690967</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.99545233919468</v>
+        <v>13.83419262668491</v>
       </c>
       <c r="P23">
-        <v>11.87413194538204</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.17101214594252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.99242263994746</v>
+      </c>
+      <c r="R23">
+        <v>11.78867267360736</v>
+      </c>
+      <c r="S23">
+        <v>15.52521640360536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.06598621764222</v>
+        <v>13.70685957284154</v>
       </c>
       <c r="C24">
-        <v>9.435010557907118</v>
+        <v>9.979708852217</v>
       </c>
       <c r="D24">
-        <v>5.685379257813993</v>
+        <v>5.779059497567542</v>
       </c>
       <c r="E24">
-        <v>18.64270161912842</v>
+        <v>18.6668769300946</v>
       </c>
       <c r="F24">
-        <v>20.29247899304663</v>
+        <v>19.59185134146258</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.33827296448868</v>
+        <v>2.351865154665455</v>
       </c>
       <c r="I24">
-        <v>2.958999593091138</v>
+        <v>3.003817904317546</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.28752664192238</v>
+        <v>13.64094117381421</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.51262927302622</v>
       </c>
       <c r="M24">
-        <v>12.94350887345389</v>
+        <v>8.83037707573445</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.8124859213906</v>
+        <v>12.94499016289959</v>
       </c>
       <c r="P24">
-        <v>12.10963533001322</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.87434419781586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.81393264046386</v>
+      </c>
+      <c r="R24">
+        <v>12.0131171555808</v>
+      </c>
+      <c r="S24">
+        <v>15.30603264689793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.80202109513213</v>
+        <v>12.5323974217006</v>
       </c>
       <c r="C25">
-        <v>8.714112288912562</v>
+        <v>9.102102680236356</v>
       </c>
       <c r="D25">
-        <v>5.364520664200004</v>
+        <v>5.426580783698036</v>
       </c>
       <c r="E25">
-        <v>17.11700272723594</v>
+        <v>17.15488086985675</v>
       </c>
       <c r="F25">
-        <v>19.45446737699555</v>
+        <v>18.85968565590997</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.989060696902544</v>
+        <v>2.011735891367415</v>
       </c>
       <c r="I25">
-        <v>2.714667173403756</v>
+        <v>2.78368926636492</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.26926157584933</v>
+        <v>13.70089848120457</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.75294861811001</v>
       </c>
       <c r="M25">
-        <v>11.90018454378861</v>
+        <v>8.569445163676518</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.44019376422722</v>
+        <v>11.9103931846186</v>
       </c>
       <c r="P25">
-        <v>12.36793834264403</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.57668612367142</v>
+        <v>15.44661810818321</v>
+      </c>
+      <c r="R25">
+        <v>12.26027499358037</v>
+      </c>
+      <c r="S25">
+        <v>15.09075144645044</v>
       </c>
     </row>
   </sheetData>
